--- a/Planilha de Livros.xlsx
+++ b/Planilha de Livros.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>R$ 374.24</t>
+          <t>R$ 374.47</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>R$ 374.17</t>
+          <t>R$ 374.41</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>R$ 373.99</t>
+          <t>R$ 374.22</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>R$ 373.80</t>
+          <t>R$ 374.03</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>R$ 373.67</t>
+          <t>R$ 373.91</t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>R$ 372.49</t>
+          <t>R$ 372.72</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>R$ 372.05</t>
+          <t>R$ 372.28</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>R$ 371.05</t>
+          <t>R$ 371.29</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>R$ 370.87</t>
+          <t>R$ 371.10</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>R$ 370.87</t>
+          <t>R$ 371.10</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>R$ 369.00</t>
+          <t>R$ 369.23</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>R$ 368.31</t>
+          <t>R$ 368.54</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>R$ 368.00</t>
+          <t>R$ 368.23</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>R$ 367.25</t>
+          <t>R$ 367.48</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>R$ 366.87</t>
+          <t>R$ 367.10</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>R$ 366.75</t>
+          <t>R$ 366.98</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>R$ 366.50</t>
+          <t>R$ 366.73</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>R$ 365.81</t>
+          <t>R$ 366.04</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>R$ 365.75</t>
+          <t>R$ 365.98</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>R$ 365.50</t>
+          <t>R$ 365.73</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>R$ 365.25</t>
+          <t>R$ 365.48</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>R$ 365.19</t>
+          <t>R$ 365.42</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>R$ 364.00</t>
+          <t>R$ 364.23</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>R$ 363.88</t>
+          <t>R$ 364.11</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>R$ 363.82</t>
+          <t>R$ 364.05</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>R$ 362.69</t>
+          <t>R$ 362.92</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>R$ 362.51</t>
+          <t>R$ 362.73</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>R$ 362.38</t>
+          <t>R$ 362.61</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>R$ 362.38</t>
+          <t>R$ 362.61</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>R$ 362.32</t>
+          <t>R$ 362.55</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>R$ 362.13</t>
+          <t>R$ 362.36</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>R$ 361.82</t>
+          <t>R$ 362.05</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>R$ 360.95</t>
+          <t>R$ 361.17</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>R$ 360.82</t>
+          <t>R$ 361.05</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>R$ 360.76</t>
+          <t>R$ 360.99</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>R$ 360.70</t>
+          <t>R$ 360.92</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>R$ 360.20</t>
+          <t>R$ 360.42</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>R$ 359.95</t>
+          <t>R$ 360.17</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>R$ 359.45</t>
+          <t>R$ 359.68</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>R$ 359.33</t>
+          <t>R$ 359.55</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>R$ 358.64</t>
+          <t>R$ 358.86</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>R$ 358.58</t>
+          <t>R$ 358.80</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>R$ 358.27</t>
+          <t>R$ 358.49</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>R$ 358.20</t>
+          <t>R$ 358.43</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>R$ 357.83</t>
+          <t>R$ 358.05</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>R$ 357.83</t>
+          <t>R$ 358.05</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>R$ 357.77</t>
+          <t>R$ 357.99</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>R$ 357.52</t>
+          <t>R$ 357.74</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>R$ 357.14</t>
+          <t>R$ 357.37</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>R$ 356.96</t>
+          <t>R$ 357.18</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>R$ 356.83</t>
+          <t>R$ 357.05</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>R$ 355.96</t>
+          <t>R$ 356.18</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>R$ 355.02</t>
+          <t>R$ 355.24</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>R$ 354.83</t>
+          <t>R$ 355.06</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>R$ 354.71</t>
+          <t>R$ 354.93</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>R$ 354.34</t>
+          <t>R$ 354.56</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>R$ 354.09</t>
+          <t>R$ 354.31</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>R$ 354.09</t>
+          <t>R$ 354.31</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>R$ 353.71</t>
+          <t>R$ 353.93</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>R$ 353.59</t>
+          <t>R$ 353.81</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>R$ 353.27</t>
+          <t>R$ 353.50</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>R$ 353.03</t>
+          <t>R$ 353.25</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>R$ 352.96</t>
+          <t>R$ 353.18</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>R$ 352.71</t>
+          <t>R$ 352.93</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>R$ 352.53</t>
+          <t>R$ 352.75</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>R$ 352.46</t>
+          <t>R$ 352.68</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>R$ 352.34</t>
+          <t>R$ 352.56</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>R$ 352.34</t>
+          <t>R$ 352.56</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>R$ 352.03</t>
+          <t>R$ 352.25</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>R$ 351.90</t>
+          <t>R$ 352.12</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>R$ 351.84</t>
+          <t>R$ 352.06</t>
         </is>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>R$ 351.65</t>
+          <t>R$ 351.87</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>R$ 351.03</t>
+          <t>R$ 351.25</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>R$ 350.16</t>
+          <t>R$ 350.37</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>R$ 349.78</t>
+          <t>R$ 350.00</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>R$ 349.72</t>
+          <t>R$ 349.94</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>R$ 349.47</t>
+          <t>R$ 349.69</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>R$ 349.47</t>
+          <t>R$ 349.69</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>R$ 349.34</t>
+          <t>R$ 349.56</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>R$ 349.28</t>
+          <t>R$ 349.50</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>R$ 348.78</t>
+          <t>R$ 349.00</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>R$ 348.78</t>
+          <t>R$ 349.00</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>R$ 348.41</t>
+          <t>R$ 348.63</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>R$ 348.35</t>
+          <t>R$ 348.56</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>R$ 347.22</t>
+          <t>R$ 347.44</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>R$ 347.16</t>
+          <t>R$ 347.38</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>R$ 347.16</t>
+          <t>R$ 347.38</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>R$ 346.54</t>
+          <t>R$ 346.75</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>R$ 346.54</t>
+          <t>R$ 346.75</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>R$ 346.41</t>
+          <t>R$ 346.63</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>R$ 346.41</t>
+          <t>R$ 346.63</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>R$ 346.29</t>
+          <t>R$ 346.50</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>R$ 346.23</t>
+          <t>R$ 346.44</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>R$ 345.98</t>
+          <t>R$ 346.19</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>R$ 345.29</t>
+          <t>R$ 345.51</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>R$ 343.48</t>
+          <t>R$ 343.70</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>R$ 343.23</t>
+          <t>R$ 343.45</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>R$ 343.23</t>
+          <t>R$ 343.45</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>R$ 342.42</t>
+          <t>R$ 342.63</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>R$ 342.23</t>
+          <t>R$ 342.45</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>R$ 341.92</t>
+          <t>R$ 342.13</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>R$ 341.92</t>
+          <t>R$ 342.13</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>R$ 340.92</t>
+          <t>R$ 341.14</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>R$ 340.86</t>
+          <t>R$ 341.07</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>R$ 340.80</t>
+          <t>R$ 341.01</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>R$ 340.74</t>
+          <t>R$ 340.95</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>R$ 340.55</t>
+          <t>R$ 340.76</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>R$ 339.55</t>
+          <t>R$ 339.76</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>R$ 339.36</t>
+          <t>R$ 339.58</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>R$ 339.11</t>
+          <t>R$ 339.33</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>R$ 339.05</t>
+          <t>R$ 339.26</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>R$ 338.68</t>
+          <t>R$ 338.89</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>R$ 338.30</t>
+          <t>R$ 338.51</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>R$ 338.18</t>
+          <t>R$ 338.39</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>R$ 338.18</t>
+          <t>R$ 338.39</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>R$ 337.62</t>
+          <t>R$ 337.83</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>R$ 337.55</t>
+          <t>R$ 337.77</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>R$ 337.30</t>
+          <t>R$ 337.52</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>R$ 337.12</t>
+          <t>R$ 337.33</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>R$ 336.87</t>
+          <t>R$ 337.08</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>R$ 336.74</t>
+          <t>R$ 336.95</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>R$ 336.74</t>
+          <t>R$ 336.95</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>R$ 336.56</t>
+          <t>R$ 336.77</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>R$ 336.24</t>
+          <t>R$ 336.45</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>R$ 336.24</t>
+          <t>R$ 336.45</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>R$ 335.75</t>
+          <t>R$ 335.96</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>R$ 335.25</t>
+          <t>R$ 335.46</t>
         </is>
       </c>
     </row>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>R$ 335.06</t>
+          <t>R$ 335.27</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>R$ 334.87</t>
+          <t>R$ 335.08</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>R$ 334.62</t>
+          <t>R$ 334.83</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>R$ 334.56</t>
+          <t>R$ 334.77</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>R$ 333.94</t>
+          <t>R$ 334.14</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>R$ 333.81</t>
+          <t>R$ 334.02</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>R$ 333.69</t>
+          <t>R$ 333.90</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>R$ 333.56</t>
+          <t>R$ 333.77</t>
         </is>
       </c>
     </row>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>R$ 331.44</t>
+          <t>R$ 331.65</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>R$ 330.88</t>
+          <t>R$ 331.09</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>R$ 330.51</t>
+          <t>R$ 330.71</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>R$ 330.26</t>
+          <t>R$ 330.46</t>
         </is>
       </c>
     </row>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>R$ 329.88</t>
+          <t>R$ 330.09</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>R$ 329.82</t>
+          <t>R$ 330.03</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>R$ 329.76</t>
+          <t>R$ 329.96</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>R$ 329.32</t>
+          <t>R$ 329.53</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>R$ 328.88</t>
+          <t>R$ 329.09</t>
         </is>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>R$ 328.57</t>
+          <t>R$ 328.78</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>R$ 328.45</t>
+          <t>R$ 328.65</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>R$ 328.26</t>
+          <t>R$ 328.46</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>R$ 328.13</t>
+          <t>R$ 328.34</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>R$ 327.70</t>
+          <t>R$ 327.90</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>R$ 327.57</t>
+          <t>R$ 327.78</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>R$ 326.95</t>
+          <t>R$ 327.15</t>
         </is>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>R$ 326.89</t>
+          <t>R$ 327.09</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>R$ 326.70</t>
+          <t>R$ 326.90</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>R$ 326.58</t>
+          <t>R$ 326.78</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>R$ 326.45</t>
+          <t>R$ 326.65</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>R$ 326.26</t>
+          <t>R$ 326.47</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>R$ 326.20</t>
+          <t>R$ 326.40</t>
         </is>
       </c>
     </row>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>R$ 326.01</t>
+          <t>R$ 326.22</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>R$ 325.95</t>
+          <t>R$ 326.15</t>
         </is>
       </c>
     </row>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>R$ 325.76</t>
+          <t>R$ 325.97</t>
         </is>
       </c>
     </row>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>R$ 325.33</t>
+          <t>R$ 325.53</t>
         </is>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>R$ 325.33</t>
+          <t>R$ 325.53</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>R$ 325.08</t>
+          <t>R$ 325.28</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>R$ 324.33</t>
+          <t>R$ 324.53</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>R$ 324.14</t>
+          <t>R$ 324.34</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>R$ 322.96</t>
+          <t>R$ 323.16</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>R$ 322.83</t>
+          <t>R$ 323.03</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>R$ 322.77</t>
+          <t>R$ 322.97</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>R$ 321.33</t>
+          <t>R$ 321.54</t>
         </is>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>R$ 321.15</t>
+          <t>R$ 321.35</t>
         </is>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>R$ 321.15</t>
+          <t>R$ 321.35</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>R$ 320.40</t>
+          <t>R$ 320.60</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>R$ 320.27</t>
+          <t>R$ 320.47</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>R$ 320.21</t>
+          <t>R$ 320.41</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>R$ 320.15</t>
+          <t>R$ 320.35</t>
         </is>
       </c>
     </row>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>R$ 320.15</t>
+          <t>R$ 320.35</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>R$ 319.53</t>
+          <t>R$ 319.73</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>R$ 319.53</t>
+          <t>R$ 319.73</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>R$ 319.21</t>
+          <t>R$ 319.41</t>
         </is>
       </c>
     </row>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>R$ 319.09</t>
+          <t>R$ 319.29</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>R$ 318.59</t>
+          <t>R$ 318.79</t>
         </is>
       </c>
     </row>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>R$ 318.40</t>
+          <t>R$ 318.60</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>R$ 317.90</t>
+          <t>R$ 318.10</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>R$ 317.90</t>
+          <t>R$ 318.10</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>R$ 317.47</t>
+          <t>R$ 317.67</t>
         </is>
       </c>
     </row>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>R$ 317.09</t>
+          <t>R$ 317.29</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>R$ 316.03</t>
+          <t>R$ 316.23</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>R$ 315.78</t>
+          <t>R$ 315.98</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>R$ 315.60</t>
+          <t>R$ 315.79</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>R$ 315.28</t>
+          <t>R$ 315.48</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>R$ 314.97</t>
+          <t>R$ 315.17</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>R$ 314.66</t>
+          <t>R$ 314.86</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>R$ 314.41</t>
+          <t>R$ 314.61</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>R$ 314.10</t>
+          <t>R$ 314.29</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>R$ 313.60</t>
+          <t>R$ 313.80</t>
         </is>
       </c>
     </row>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>R$ 313.54</t>
+          <t>R$ 313.73</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>R$ 312.60</t>
+          <t>R$ 312.80</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>R$ 312.54</t>
+          <t>R$ 312.73</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>R$ 311.79</t>
+          <t>R$ 311.99</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>R$ 311.73</t>
+          <t>R$ 311.92</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>R$ 310.85</t>
+          <t>R$ 311.05</t>
         </is>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>R$ 310.11</t>
+          <t>R$ 310.30</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>R$ 309.86</t>
+          <t>R$ 310.05</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>R$ 309.86</t>
+          <t>R$ 310.05</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>R$ 309.17</t>
+          <t>R$ 309.36</t>
         </is>
       </c>
     </row>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>R$ 308.98</t>
+          <t>R$ 309.18</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>R$ 308.86</t>
+          <t>R$ 309.05</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>R$ 308.61</t>
+          <t>R$ 308.80</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>R$ 308.55</t>
+          <t>R$ 308.74</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>R$ 308.55</t>
+          <t>R$ 308.74</t>
         </is>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>R$ 308.48</t>
+          <t>R$ 308.68</t>
         </is>
       </c>
     </row>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>R$ 308.36</t>
+          <t>R$ 308.55</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>R$ 307.67</t>
+          <t>R$ 307.87</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>R$ 307.61</t>
+          <t>R$ 307.80</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>R$ 306.49</t>
+          <t>R$ 306.68</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>R$ 305.99</t>
+          <t>R$ 306.18</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>R$ 305.99</t>
+          <t>R$ 306.18</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>R$ 305.86</t>
+          <t>R$ 306.06</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>R$ 305.43</t>
+          <t>R$ 305.62</t>
         </is>
       </c>
     </row>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>R$ 305.30</t>
+          <t>R$ 305.49</t>
         </is>
       </c>
     </row>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>R$ 304.87</t>
+          <t>R$ 305.06</t>
         </is>
       </c>
     </row>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>R$ 304.43</t>
+          <t>R$ 304.62</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>R$ 304.30</t>
+          <t>R$ 304.49</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>R$ 304.24</t>
+          <t>R$ 304.43</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>R$ 304.12</t>
+          <t>R$ 304.31</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>R$ 304.05</t>
+          <t>R$ 304.24</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>R$ 303.87</t>
+          <t>R$ 304.06</t>
         </is>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>R$ 303.62</t>
+          <t>R$ 303.81</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>R$ 303.43</t>
+          <t>R$ 303.62</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>R$ 303.37</t>
+          <t>R$ 303.56</t>
         </is>
       </c>
     </row>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>R$ 302.93</t>
+          <t>R$ 303.12</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>R$ 302.62</t>
+          <t>R$ 302.81</t>
         </is>
       </c>
     </row>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>R$ 302.50</t>
+          <t>R$ 302.68</t>
         </is>
       </c>
     </row>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>R$ 302.43</t>
+          <t>R$ 302.62</t>
         </is>
       </c>
     </row>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>R$ 302.00</t>
+          <t>R$ 302.18</t>
         </is>
       </c>
     </row>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>R$ 301.87</t>
+          <t>R$ 302.06</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>R$ 301.87</t>
+          <t>R$ 302.06</t>
         </is>
       </c>
     </row>
@@ -4504,7 +4504,7 @@
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>R$ 301.62</t>
+          <t>R$ 301.81</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>R$ 301.12</t>
+          <t>R$ 301.31</t>
         </is>
       </c>
     </row>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>R$ 300.62</t>
+          <t>R$ 300.81</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>R$ 300.25</t>
+          <t>R$ 300.44</t>
         </is>
       </c>
     </row>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>R$ 299.75</t>
+          <t>R$ 299.94</t>
         </is>
       </c>
     </row>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>R$ 298.44</t>
+          <t>R$ 298.63</t>
         </is>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>R$ 298.32</t>
+          <t>R$ 298.50</t>
         </is>
       </c>
     </row>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>R$ 298.32</t>
+          <t>R$ 298.50</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>R$ 298.19</t>
+          <t>R$ 298.38</t>
         </is>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>R$ 297.69</t>
+          <t>R$ 297.88</t>
         </is>
       </c>
     </row>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>R$ 297.38</t>
+          <t>R$ 297.57</t>
         </is>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>R$ 297.01</t>
+          <t>R$ 297.19</t>
         </is>
       </c>
     </row>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>R$ 296.38</t>
+          <t>R$ 296.57</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>R$ 295.94</t>
+          <t>R$ 296.13</t>
         </is>
       </c>
     </row>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>R$ 295.13</t>
+          <t>R$ 295.32</t>
         </is>
       </c>
     </row>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>R$ 294.88</t>
+          <t>R$ 295.07</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>R$ 294.57</t>
+          <t>R$ 294.76</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>R$ 294.01</t>
+          <t>R$ 294.19</t>
         </is>
       </c>
     </row>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>R$ 293.89</t>
+          <t>R$ 294.07</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>R$ 293.76</t>
+          <t>R$ 293.95</t>
         </is>
       </c>
     </row>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>R$ 293.32</t>
+          <t>R$ 293.51</t>
         </is>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>R$ 292.95</t>
+          <t>R$ 293.13</t>
         </is>
       </c>
     </row>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>R$ 292.64</t>
+          <t>R$ 292.82</t>
         </is>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>R$ 292.64</t>
+          <t>R$ 292.82</t>
         </is>
       </c>
     </row>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>R$ 292.26</t>
+          <t>R$ 292.45</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>R$ 292.14</t>
+          <t>R$ 292.32</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>R$ 292.08</t>
+          <t>R$ 292.26</t>
         </is>
       </c>
     </row>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>R$ 291.83</t>
+          <t>R$ 292.01</t>
         </is>
       </c>
     </row>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>R$ 290.95</t>
+          <t>R$ 291.14</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>R$ 290.58</t>
+          <t>R$ 290.76</t>
         </is>
       </c>
     </row>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>R$ 290.02</t>
+          <t>R$ 290.20</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>R$ 289.89</t>
+          <t>R$ 290.08</t>
         </is>
       </c>
     </row>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>R$ 289.77</t>
+          <t>R$ 289.95</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>R$ 289.58</t>
+          <t>R$ 289.76</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>R$ 289.15</t>
+          <t>R$ 289.33</t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>R$ 289.02</t>
+          <t>R$ 289.20</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>R$ 288.90</t>
+          <t>R$ 289.08</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>R$ 288.77</t>
+          <t>R$ 288.95</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>R$ 288.77</t>
+          <t>R$ 288.95</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>R$ 288.40</t>
+          <t>R$ 288.58</t>
         </is>
       </c>
     </row>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>R$ 287.46</t>
+          <t>R$ 287.64</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>R$ 287.15</t>
+          <t>R$ 287.33</t>
         </is>
       </c>
     </row>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>R$ 287.09</t>
+          <t>R$ 287.27</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>R$ 287.09</t>
+          <t>R$ 287.27</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>R$ 287.02</t>
+          <t>R$ 287.20</t>
         </is>
       </c>
     </row>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>R$ 286.65</t>
+          <t>R$ 286.83</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>R$ 285.96</t>
+          <t>R$ 286.14</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>R$ 285.40</t>
+          <t>R$ 285.58</t>
         </is>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>R$ 284.53</t>
+          <t>R$ 284.71</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>R$ 284.34</t>
+          <t>R$ 284.52</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>R$ 284.22</t>
+          <t>R$ 284.39</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>R$ 283.91</t>
+          <t>R$ 284.08</t>
         </is>
       </c>
     </row>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>R$ 283.41</t>
+          <t>R$ 283.58</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>R$ 283.34</t>
+          <t>R$ 283.52</t>
         </is>
       </c>
     </row>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>R$ 282.22</t>
+          <t>R$ 282.40</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>R$ 282.10</t>
+          <t>R$ 282.27</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>R$ 282.03</t>
+          <t>R$ 282.21</t>
         </is>
       </c>
     </row>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>R$ 281.78</t>
+          <t>R$ 281.96</t>
         </is>
       </c>
     </row>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>R$ 281.78</t>
+          <t>R$ 281.96</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>R$ 281.60</t>
+          <t>R$ 281.77</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>R$ 281.53</t>
+          <t>R$ 281.71</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>R$ 281.41</t>
+          <t>R$ 281.59</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>R$ 281.16</t>
+          <t>R$ 281.34</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>R$ 281.04</t>
+          <t>R$ 281.21</t>
         </is>
       </c>
     </row>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>R$ 280.54</t>
+          <t>R$ 280.71</t>
         </is>
       </c>
     </row>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>R$ 280.22</t>
+          <t>R$ 280.40</t>
         </is>
       </c>
     </row>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>R$ 280.16</t>
+          <t>R$ 280.34</t>
         </is>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>R$ 279.97</t>
+          <t>R$ 280.15</t>
         </is>
       </c>
     </row>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>R$ 279.73</t>
+          <t>R$ 279.90</t>
         </is>
       </c>
     </row>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>R$ 279.54</t>
+          <t>R$ 279.71</t>
         </is>
       </c>
     </row>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>R$ 279.10</t>
+          <t>R$ 279.28</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>R$ 279.04</t>
+          <t>R$ 279.21</t>
         </is>
       </c>
     </row>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>R$ 278.10</t>
+          <t>R$ 278.28</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>R$ 277.48</t>
+          <t>R$ 277.65</t>
         </is>
       </c>
     </row>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>R$ 277.48</t>
+          <t>R$ 277.65</t>
         </is>
       </c>
     </row>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>R$ 276.61</t>
+          <t>R$ 276.78</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>R$ 276.29</t>
+          <t>R$ 276.47</t>
         </is>
       </c>
     </row>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>R$ 276.23</t>
+          <t>R$ 276.40</t>
         </is>
       </c>
     </row>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>R$ 275.80</t>
+          <t>R$ 275.97</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>R$ 275.61</t>
+          <t>R$ 275.78</t>
         </is>
       </c>
     </row>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>R$ 275.61</t>
+          <t>R$ 275.78</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>R$ 275.61</t>
+          <t>R$ 275.78</t>
         </is>
       </c>
     </row>
@@ -5898,7 +5898,7 @@
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>R$ 275.36</t>
+          <t>R$ 275.53</t>
         </is>
       </c>
     </row>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>R$ 275.11</t>
+          <t>R$ 275.28</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>R$ 274.92</t>
+          <t>R$ 275.09</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>R$ 274.92</t>
+          <t>R$ 275.09</t>
         </is>
       </c>
     </row>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>R$ 274.80</t>
+          <t>R$ 274.97</t>
         </is>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>R$ 273.67</t>
+          <t>R$ 273.85</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="C327" s="2" t="inlineStr">
         <is>
-          <t>R$ 272.61</t>
+          <t>R$ 272.78</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="C328" s="2" t="inlineStr">
         <is>
-          <t>R$ 272.55</t>
+          <t>R$ 272.72</t>
         </is>
       </c>
     </row>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="C329" s="2" t="inlineStr">
         <is>
-          <t>R$ 272.49</t>
+          <t>R$ 272.66</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="C330" s="2" t="inlineStr">
         <is>
-          <t>R$ 272.24</t>
+          <t>R$ 272.41</t>
         </is>
       </c>
     </row>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="C331" s="2" t="inlineStr">
         <is>
-          <t>R$ 272.18</t>
+          <t>R$ 272.35</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="C332" s="2" t="inlineStr">
         <is>
-          <t>R$ 272.11</t>
+          <t>R$ 272.28</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="C333" s="2" t="inlineStr">
         <is>
-          <t>R$ 272.05</t>
+          <t>R$ 272.22</t>
         </is>
       </c>
     </row>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="C334" s="2" t="inlineStr">
         <is>
-          <t>R$ 271.93</t>
+          <t>R$ 272.10</t>
         </is>
       </c>
     </row>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="C335" s="2" t="inlineStr">
         <is>
-          <t>R$ 271.87</t>
+          <t>R$ 272.04</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="C336" s="2" t="inlineStr">
         <is>
-          <t>R$ 271.87</t>
+          <t>R$ 272.04</t>
         </is>
       </c>
     </row>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="C337" s="2" t="inlineStr">
         <is>
-          <t>R$ 271.68</t>
+          <t>R$ 271.85</t>
         </is>
       </c>
     </row>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="C338" s="2" t="inlineStr">
         <is>
-          <t>R$ 271.68</t>
+          <t>R$ 271.85</t>
         </is>
       </c>
     </row>
@@ -6204,7 +6204,7 @@
       </c>
       <c r="C339" s="2" t="inlineStr">
         <is>
-          <t>R$ 271.62</t>
+          <t>R$ 271.79</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="C340" s="2" t="inlineStr">
         <is>
-          <t>R$ 271.05</t>
+          <t>R$ 271.22</t>
         </is>
       </c>
     </row>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="C341" s="2" t="inlineStr">
         <is>
-          <t>R$ 270.62</t>
+          <t>R$ 270.79</t>
         </is>
       </c>
     </row>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="C342" s="2" t="inlineStr">
         <is>
-          <t>R$ 270.12</t>
+          <t>R$ 270.29</t>
         </is>
       </c>
     </row>
@@ -6272,7 +6272,7 @@
       </c>
       <c r="C343" s="2" t="inlineStr">
         <is>
-          <t>R$ 270.06</t>
+          <t>R$ 270.22</t>
         </is>
       </c>
     </row>
@@ -6289,7 +6289,7 @@
       </c>
       <c r="C344" s="2" t="inlineStr">
         <is>
-          <t>R$ 270.06</t>
+          <t>R$ 270.22</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="C345" s="2" t="inlineStr">
         <is>
-          <t>R$ 269.99</t>
+          <t>R$ 270.16</t>
         </is>
       </c>
     </row>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="C346" s="2" t="inlineStr">
         <is>
-          <t>R$ 269.93</t>
+          <t>R$ 270.10</t>
         </is>
       </c>
     </row>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="C347" s="2" t="inlineStr">
         <is>
-          <t>R$ 269.43</t>
+          <t>R$ 269.60</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="C348" s="2" t="inlineStr">
         <is>
-          <t>R$ 269.12</t>
+          <t>R$ 269.29</t>
         </is>
       </c>
     </row>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="C349" s="2" t="inlineStr">
         <is>
-          <t>R$ 268.50</t>
+          <t>R$ 268.66</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="C350" s="2" t="inlineStr">
         <is>
-          <t>R$ 268.37</t>
+          <t>R$ 268.54</t>
         </is>
       </c>
     </row>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="C351" s="2" t="inlineStr">
         <is>
-          <t>R$ 268.12</t>
+          <t>R$ 268.29</t>
         </is>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="C352" s="2" t="inlineStr">
         <is>
-          <t>R$ 268.00</t>
+          <t>R$ 268.16</t>
         </is>
       </c>
     </row>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="C353" s="2" t="inlineStr">
         <is>
-          <t>R$ 267.93</t>
+          <t>R$ 268.10</t>
         </is>
       </c>
     </row>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="C354" s="2" t="inlineStr">
         <is>
-          <t>R$ 267.69</t>
+          <t>R$ 267.85</t>
         </is>
       </c>
     </row>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="C355" s="2" t="inlineStr">
         <is>
-          <t>R$ 267.00</t>
+          <t>R$ 267.17</t>
         </is>
       </c>
     </row>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="C356" s="2" t="inlineStr">
         <is>
-          <t>R$ 266.87</t>
+          <t>R$ 267.04</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="C357" s="2" t="inlineStr">
         <is>
-          <t>R$ 266.50</t>
+          <t>R$ 266.67</t>
         </is>
       </c>
     </row>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="C358" s="2" t="inlineStr">
         <is>
-          <t>R$ 265.56</t>
+          <t>R$ 265.73</t>
         </is>
       </c>
     </row>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="C359" s="2" t="inlineStr">
         <is>
-          <t>R$ 264.50</t>
+          <t>R$ 264.67</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="C360" s="2" t="inlineStr">
         <is>
-          <t>R$ 264.38</t>
+          <t>R$ 264.54</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="C361" s="2" t="inlineStr">
         <is>
-          <t>R$ 263.69</t>
+          <t>R$ 263.86</t>
         </is>
       </c>
     </row>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="C362" s="2" t="inlineStr">
         <is>
-          <t>R$ 263.32</t>
+          <t>R$ 263.48</t>
         </is>
       </c>
     </row>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="C363" s="2" t="inlineStr">
         <is>
-          <t>R$ 263.01</t>
+          <t>R$ 263.17</t>
         </is>
       </c>
     </row>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="C364" s="2" t="inlineStr">
         <is>
-          <t>R$ 262.94</t>
+          <t>R$ 263.11</t>
         </is>
       </c>
     </row>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="C365" s="2" t="inlineStr">
         <is>
-          <t>R$ 262.88</t>
+          <t>R$ 263.05</t>
         </is>
       </c>
     </row>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="C366" s="2" t="inlineStr">
         <is>
-          <t>R$ 262.76</t>
+          <t>R$ 262.92</t>
         </is>
       </c>
     </row>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="C367" s="2" t="inlineStr">
         <is>
-          <t>R$ 261.57</t>
+          <t>R$ 261.74</t>
         </is>
       </c>
     </row>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="C368" s="2" t="inlineStr">
         <is>
-          <t>R$ 260.95</t>
+          <t>R$ 261.11</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="C369" s="2" t="inlineStr">
         <is>
-          <t>R$ 260.89</t>
+          <t>R$ 261.05</t>
         </is>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="C370" s="2" t="inlineStr">
         <is>
-          <t>R$ 260.82</t>
+          <t>R$ 260.99</t>
         </is>
       </c>
     </row>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="C371" s="2" t="inlineStr">
         <is>
-          <t>R$ 260.32</t>
+          <t>R$ 260.49</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="C372" s="2" t="inlineStr">
         <is>
-          <t>R$ 259.95</t>
+          <t>R$ 260.11</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="C373" s="2" t="inlineStr">
         <is>
-          <t>R$ 259.64</t>
+          <t>R$ 259.80</t>
         </is>
       </c>
     </row>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="C374" s="2" t="inlineStr">
         <is>
-          <t>R$ 259.51</t>
+          <t>R$ 259.68</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="C375" s="2" t="inlineStr">
         <is>
-          <t>R$ 259.26</t>
+          <t>R$ 259.43</t>
         </is>
       </c>
     </row>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="C376" s="2" t="inlineStr">
         <is>
-          <t>R$ 259.26</t>
+          <t>R$ 259.43</t>
         </is>
       </c>
     </row>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="C377" s="2" t="inlineStr">
         <is>
-          <t>R$ 258.64</t>
+          <t>R$ 258.80</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       </c>
       <c r="C378" s="2" t="inlineStr">
         <is>
-          <t>R$ 258.20</t>
+          <t>R$ 258.36</t>
         </is>
       </c>
     </row>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="C379" s="2" t="inlineStr">
         <is>
-          <t>R$ 257.77</t>
+          <t>R$ 257.93</t>
         </is>
       </c>
     </row>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="C380" s="2" t="inlineStr">
         <is>
-          <t>R$ 257.77</t>
+          <t>R$ 257.93</t>
         </is>
       </c>
     </row>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="C381" s="2" t="inlineStr">
         <is>
-          <t>R$ 257.33</t>
+          <t>R$ 257.49</t>
         </is>
       </c>
     </row>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="C382" s="2" t="inlineStr">
         <is>
-          <t>R$ 257.27</t>
+          <t>R$ 257.43</t>
         </is>
       </c>
     </row>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="C383" s="2" t="inlineStr">
         <is>
-          <t>R$ 256.64</t>
+          <t>R$ 256.80</t>
         </is>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="C384" s="2" t="inlineStr">
         <is>
-          <t>R$ 256.14</t>
+          <t>R$ 256.30</t>
         </is>
       </c>
     </row>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="C385" s="2" t="inlineStr">
         <is>
-          <t>R$ 256.08</t>
+          <t>R$ 256.24</t>
         </is>
       </c>
     </row>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="C386" s="2" t="inlineStr">
         <is>
-          <t>R$ 255.77</t>
+          <t>R$ 255.93</t>
         </is>
       </c>
     </row>
@@ -7020,7 +7020,7 @@
       </c>
       <c r="C387" s="2" t="inlineStr">
         <is>
-          <t>R$ 254.96</t>
+          <t>R$ 255.12</t>
         </is>
       </c>
     </row>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="C388" s="2" t="inlineStr">
         <is>
-          <t>R$ 254.83</t>
+          <t>R$ 254.99</t>
         </is>
       </c>
     </row>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="C389" s="2" t="inlineStr">
         <is>
-          <t>R$ 254.71</t>
+          <t>R$ 254.87</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="C390" s="2" t="inlineStr">
         <is>
-          <t>R$ 254.71</t>
+          <t>R$ 254.87</t>
         </is>
       </c>
     </row>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="C391" s="2" t="inlineStr">
         <is>
-          <t>R$ 254.46</t>
+          <t>R$ 254.62</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="C392" s="2" t="inlineStr">
         <is>
-          <t>R$ 254.27</t>
+          <t>R$ 254.43</t>
         </is>
       </c>
     </row>
@@ -7122,7 +7122,7 @@
       </c>
       <c r="C393" s="2" t="inlineStr">
         <is>
-          <t>R$ 254.02</t>
+          <t>R$ 254.18</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="C394" s="2" t="inlineStr">
         <is>
-          <t>R$ 253.71</t>
+          <t>R$ 253.87</t>
         </is>
       </c>
     </row>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="C395" s="2" t="inlineStr">
         <is>
-          <t>R$ 252.34</t>
+          <t>R$ 252.50</t>
         </is>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="C396" s="2" t="inlineStr">
         <is>
-          <t>R$ 252.28</t>
+          <t>R$ 252.43</t>
         </is>
       </c>
     </row>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="C397" s="2" t="inlineStr">
         <is>
-          <t>R$ 251.78</t>
+          <t>R$ 251.94</t>
         </is>
       </c>
     </row>
@@ -7207,7 +7207,7 @@
       </c>
       <c r="C398" s="2" t="inlineStr">
         <is>
-          <t>R$ 251.53</t>
+          <t>R$ 251.69</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="C399" s="2" t="inlineStr">
         <is>
-          <t>R$ 251.40</t>
+          <t>R$ 251.56</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="C400" s="2" t="inlineStr">
         <is>
-          <t>R$ 251.28</t>
+          <t>R$ 251.44</t>
         </is>
       </c>
     </row>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="C401" s="2" t="inlineStr">
         <is>
-          <t>R$ 250.78</t>
+          <t>R$ 250.94</t>
         </is>
       </c>
     </row>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="C402" s="2" t="inlineStr">
         <is>
-          <t>R$ 250.59</t>
+          <t>R$ 250.75</t>
         </is>
       </c>
     </row>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="C403" s="2" t="inlineStr">
         <is>
-          <t>R$ 250.28</t>
+          <t>R$ 250.44</t>
         </is>
       </c>
     </row>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="C404" s="2" t="inlineStr">
         <is>
-          <t>R$ 250.22</t>
+          <t>R$ 250.37</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7326,7 @@
       </c>
       <c r="C405" s="2" t="inlineStr">
         <is>
-          <t>R$ 248.10</t>
+          <t>R$ 248.25</t>
         </is>
       </c>
     </row>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="C406" s="2" t="inlineStr">
         <is>
-          <t>R$ 247.79</t>
+          <t>R$ 247.94</t>
         </is>
       </c>
     </row>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="C407" s="2" t="inlineStr">
         <is>
-          <t>R$ 247.47</t>
+          <t>R$ 247.63</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="C408" s="2" t="inlineStr">
         <is>
-          <t>R$ 247.47</t>
+          <t>R$ 247.63</t>
         </is>
       </c>
     </row>
@@ -7394,7 +7394,7 @@
       </c>
       <c r="C409" s="2" t="inlineStr">
         <is>
-          <t>R$ 247.10</t>
+          <t>R$ 247.25</t>
         </is>
       </c>
     </row>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="C410" s="2" t="inlineStr">
         <is>
-          <t>R$ 247.10</t>
+          <t>R$ 247.25</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="C411" s="2" t="inlineStr">
         <is>
-          <t>R$ 246.91</t>
+          <t>R$ 247.07</t>
         </is>
       </c>
     </row>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="C412" s="2" t="inlineStr">
         <is>
-          <t>R$ 246.72</t>
+          <t>R$ 246.88</t>
         </is>
       </c>
     </row>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="C413" s="2" t="inlineStr">
         <is>
-          <t>R$ 246.48</t>
+          <t>R$ 246.63</t>
         </is>
       </c>
     </row>
@@ -7479,7 +7479,7 @@
       </c>
       <c r="C414" s="2" t="inlineStr">
         <is>
-          <t>R$ 246.41</t>
+          <t>R$ 246.57</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="C415" s="2" t="inlineStr">
         <is>
-          <t>R$ 246.10</t>
+          <t>R$ 246.25</t>
         </is>
       </c>
     </row>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="C416" s="2" t="inlineStr">
         <is>
-          <t>R$ 245.98</t>
+          <t>R$ 246.13</t>
         </is>
       </c>
     </row>
@@ -7530,7 +7530,7 @@
       </c>
       <c r="C417" s="2" t="inlineStr">
         <is>
-          <t>R$ 245.73</t>
+          <t>R$ 245.88</t>
         </is>
       </c>
     </row>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="C418" s="2" t="inlineStr">
         <is>
-          <t>R$ 245.54</t>
+          <t>R$ 245.69</t>
         </is>
       </c>
     </row>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="C419" s="2" t="inlineStr">
         <is>
-          <t>R$ 244.85</t>
+          <t>R$ 245.01</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="C420" s="2" t="inlineStr">
         <is>
-          <t>R$ 244.79</t>
+          <t>R$ 244.94</t>
         </is>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="C421" s="2" t="inlineStr">
         <is>
-          <t>R$ 244.79</t>
+          <t>R$ 244.94</t>
         </is>
       </c>
     </row>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="C422" s="2" t="inlineStr">
         <is>
-          <t>R$ 244.79</t>
+          <t>R$ 244.94</t>
         </is>
       </c>
     </row>
@@ -7632,7 +7632,7 @@
       </c>
       <c r="C423" s="2" t="inlineStr">
         <is>
-          <t>R$ 244.10</t>
+          <t>R$ 244.26</t>
         </is>
       </c>
     </row>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="C424" s="2" t="inlineStr">
         <is>
-          <t>R$ 243.73</t>
+          <t>R$ 243.88</t>
         </is>
       </c>
     </row>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="C425" s="2" t="inlineStr">
         <is>
-          <t>R$ 243.36</t>
+          <t>R$ 243.51</t>
         </is>
       </c>
     </row>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="C426" s="2" t="inlineStr">
         <is>
-          <t>R$ 242.98</t>
+          <t>R$ 243.13</t>
         </is>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="C427" s="2" t="inlineStr">
         <is>
-          <t>R$ 242.79</t>
+          <t>R$ 242.95</t>
         </is>
       </c>
     </row>
@@ -7717,7 +7717,7 @@
       </c>
       <c r="C428" s="2" t="inlineStr">
         <is>
-          <t>R$ 242.61</t>
+          <t>R$ 242.76</t>
         </is>
       </c>
     </row>
@@ -7734,7 +7734,7 @@
       </c>
       <c r="C429" s="2" t="inlineStr">
         <is>
-          <t>R$ 242.36</t>
+          <t>R$ 242.51</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="C430" s="2" t="inlineStr">
         <is>
-          <t>R$ 241.86</t>
+          <t>R$ 242.01</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="C431" s="2" t="inlineStr">
         <is>
-          <t>R$ 241.86</t>
+          <t>R$ 242.01</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="C432" s="2" t="inlineStr">
         <is>
-          <t>R$ 241.61</t>
+          <t>R$ 241.76</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="C433" s="2" t="inlineStr">
         <is>
-          <t>R$ 241.48</t>
+          <t>R$ 241.64</t>
         </is>
       </c>
     </row>
@@ -7819,7 +7819,7 @@
       </c>
       <c r="C434" s="2" t="inlineStr">
         <is>
-          <t>R$ 241.42</t>
+          <t>R$ 241.57</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="C435" s="2" t="inlineStr">
         <is>
-          <t>R$ 240.92</t>
+          <t>R$ 241.07</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="C436" s="2" t="inlineStr">
         <is>
-          <t>R$ 240.11</t>
+          <t>R$ 240.26</t>
         </is>
       </c>
     </row>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="C437" s="2" t="inlineStr">
         <is>
-          <t>R$ 239.74</t>
+          <t>R$ 239.89</t>
         </is>
       </c>
     </row>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="C438" s="2" t="inlineStr">
         <is>
-          <t>R$ 239.55</t>
+          <t>R$ 239.70</t>
         </is>
       </c>
     </row>
@@ -7904,7 +7904,7 @@
       </c>
       <c r="C439" s="2" t="inlineStr">
         <is>
-          <t>R$ 239.49</t>
+          <t>R$ 239.64</t>
         </is>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="C440" s="2" t="inlineStr">
         <is>
-          <t>R$ 239.43</t>
+          <t>R$ 239.58</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="C441" s="2" t="inlineStr">
         <is>
-          <t>R$ 239.24</t>
+          <t>R$ 239.39</t>
         </is>
       </c>
     </row>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="C442" s="2" t="inlineStr">
         <is>
-          <t>R$ 238.80</t>
+          <t>R$ 238.95</t>
         </is>
       </c>
     </row>
@@ -7972,7 +7972,7 @@
       </c>
       <c r="C443" s="2" t="inlineStr">
         <is>
-          <t>R$ 238.37</t>
+          <t>R$ 238.51</t>
         </is>
       </c>
     </row>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="C444" s="2" t="inlineStr">
         <is>
-          <t>R$ 238.30</t>
+          <t>R$ 238.45</t>
         </is>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="C445" s="2" t="inlineStr">
         <is>
-          <t>R$ 238.05</t>
+          <t>R$ 238.20</t>
         </is>
       </c>
     </row>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="C446" s="2" t="inlineStr">
         <is>
-          <t>R$ 237.87</t>
+          <t>R$ 238.02</t>
         </is>
       </c>
     </row>
@@ -8040,7 +8040,7 @@
       </c>
       <c r="C447" s="2" t="inlineStr">
         <is>
-          <t>R$ 237.18</t>
+          <t>R$ 237.33</t>
         </is>
       </c>
     </row>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="C448" s="2" t="inlineStr">
         <is>
-          <t>R$ 237.06</t>
+          <t>R$ 237.20</t>
         </is>
       </c>
     </row>
@@ -8074,7 +8074,7 @@
       </c>
       <c r="C449" s="2" t="inlineStr">
         <is>
-          <t>R$ 236.87</t>
+          <t>R$ 237.02</t>
         </is>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="C450" s="2" t="inlineStr">
         <is>
-          <t>R$ 236.56</t>
+          <t>R$ 236.70</t>
         </is>
       </c>
     </row>
@@ -8108,7 +8108,7 @@
       </c>
       <c r="C451" s="2" t="inlineStr">
         <is>
-          <t>R$ 236.18</t>
+          <t>R$ 236.33</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       </c>
       <c r="C452" s="2" t="inlineStr">
         <is>
-          <t>R$ 235.81</t>
+          <t>R$ 235.96</t>
         </is>
       </c>
     </row>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="C453" s="2" t="inlineStr">
         <is>
-          <t>R$ 235.81</t>
+          <t>R$ 235.96</t>
         </is>
       </c>
     </row>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="C454" s="2" t="inlineStr">
         <is>
-          <t>R$ 235.31</t>
+          <t>R$ 235.46</t>
         </is>
       </c>
     </row>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="C455" s="2" t="inlineStr">
         <is>
-          <t>R$ 234.62</t>
+          <t>R$ 234.77</t>
         </is>
       </c>
     </row>
@@ -8193,7 +8193,7 @@
       </c>
       <c r="C456" s="2" t="inlineStr">
         <is>
-          <t>R$ 234.56</t>
+          <t>R$ 234.71</t>
         </is>
       </c>
     </row>
@@ -8210,7 +8210,7 @@
       </c>
       <c r="C457" s="2" t="inlineStr">
         <is>
-          <t>R$ 234.56</t>
+          <t>R$ 234.71</t>
         </is>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="C458" s="2" t="inlineStr">
         <is>
-          <t>R$ 234.50</t>
+          <t>R$ 234.64</t>
         </is>
       </c>
     </row>
@@ -8244,7 +8244,7 @@
       </c>
       <c r="C459" s="2" t="inlineStr">
         <is>
-          <t>R$ 234.25</t>
+          <t>R$ 234.39</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="C460" s="2" t="inlineStr">
         <is>
-          <t>R$ 234.06</t>
+          <t>R$ 234.21</t>
         </is>
       </c>
     </row>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="C461" s="2" t="inlineStr">
         <is>
-          <t>R$ 234.00</t>
+          <t>R$ 234.14</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="C462" s="2" t="inlineStr">
         <is>
-          <t>R$ 234.00</t>
+          <t>R$ 234.14</t>
         </is>
       </c>
     </row>
@@ -8312,7 +8312,7 @@
       </c>
       <c r="C463" s="2" t="inlineStr">
         <is>
-          <t>R$ 233.69</t>
+          <t>R$ 233.83</t>
         </is>
       </c>
     </row>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="C464" s="2" t="inlineStr">
         <is>
-          <t>R$ 233.31</t>
+          <t>R$ 233.46</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8346,7 @@
       </c>
       <c r="C465" s="2" t="inlineStr">
         <is>
-          <t>R$ 233.00</t>
+          <t>R$ 233.15</t>
         </is>
       </c>
     </row>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="C466" s="2" t="inlineStr">
         <is>
-          <t>R$ 232.94</t>
+          <t>R$ 233.08</t>
         </is>
       </c>
     </row>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="C467" s="2" t="inlineStr">
         <is>
-          <t>R$ 232.94</t>
+          <t>R$ 233.08</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="C468" s="2" t="inlineStr">
         <is>
-          <t>R$ 232.94</t>
+          <t>R$ 233.08</t>
         </is>
       </c>
     </row>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="C469" s="2" t="inlineStr">
         <is>
-          <t>R$ 232.88</t>
+          <t>R$ 233.02</t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="C470" s="2" t="inlineStr">
         <is>
-          <t>R$ 232.81</t>
+          <t>R$ 232.96</t>
         </is>
       </c>
     </row>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="C471" s="2" t="inlineStr">
         <is>
-          <t>R$ 232.44</t>
+          <t>R$ 232.58</t>
         </is>
       </c>
     </row>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="C472" s="2" t="inlineStr">
         <is>
-          <t>R$ 232.38</t>
+          <t>R$ 232.52</t>
         </is>
       </c>
     </row>
@@ -8482,7 +8482,7 @@
       </c>
       <c r="C473" s="2" t="inlineStr">
         <is>
-          <t>R$ 232.00</t>
+          <t>R$ 232.15</t>
         </is>
       </c>
     </row>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="C474" s="2" t="inlineStr">
         <is>
-          <t>R$ 231.63</t>
+          <t>R$ 231.77</t>
         </is>
       </c>
     </row>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="C475" s="2" t="inlineStr">
         <is>
-          <t>R$ 231.44</t>
+          <t>R$ 231.59</t>
         </is>
       </c>
     </row>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="C476" s="2" t="inlineStr">
         <is>
-          <t>R$ 231.13</t>
+          <t>R$ 231.27</t>
         </is>
       </c>
     </row>
@@ -8550,7 +8550,7 @@
       </c>
       <c r="C477" s="2" t="inlineStr">
         <is>
-          <t>R$ 230.63</t>
+          <t>R$ 230.77</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="C478" s="2" t="inlineStr">
         <is>
-          <t>R$ 230.51</t>
+          <t>R$ 230.65</t>
         </is>
       </c>
     </row>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="C479" s="2" t="inlineStr">
         <is>
-          <t>R$ 230.44</t>
+          <t>R$ 230.59</t>
         </is>
       </c>
     </row>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="C480" s="2" t="inlineStr">
         <is>
-          <t>R$ 230.44</t>
+          <t>R$ 230.59</t>
         </is>
       </c>
     </row>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="C481" s="2" t="inlineStr">
         <is>
-          <t>R$ 230.26</t>
+          <t>R$ 230.40</t>
         </is>
       </c>
     </row>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="C482" s="2" t="inlineStr">
         <is>
-          <t>R$ 230.13</t>
+          <t>R$ 230.27</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="C483" s="2" t="inlineStr">
         <is>
-          <t>R$ 229.76</t>
+          <t>R$ 229.90</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="C484" s="2" t="inlineStr">
         <is>
-          <t>R$ 229.57</t>
+          <t>R$ 229.71</t>
         </is>
       </c>
     </row>
@@ -8686,7 +8686,7 @@
       </c>
       <c r="C485" s="2" t="inlineStr">
         <is>
-          <t>R$ 229.20</t>
+          <t>R$ 229.34</t>
         </is>
       </c>
     </row>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="C486" s="2" t="inlineStr">
         <is>
-          <t>R$ 229.07</t>
+          <t>R$ 229.21</t>
         </is>
       </c>
     </row>
@@ -8720,7 +8720,7 @@
       </c>
       <c r="C487" s="2" t="inlineStr">
         <is>
-          <t>R$ 228.20</t>
+          <t>R$ 228.34</t>
         </is>
       </c>
     </row>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="C488" s="2" t="inlineStr">
         <is>
-          <t>R$ 228.20</t>
+          <t>R$ 228.34</t>
         </is>
       </c>
     </row>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="C489" s="2" t="inlineStr">
         <is>
-          <t>R$ 228.01</t>
+          <t>R$ 228.15</t>
         </is>
       </c>
     </row>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="C490" s="2" t="inlineStr">
         <is>
-          <t>R$ 227.82</t>
+          <t>R$ 227.97</t>
         </is>
       </c>
     </row>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="C491" s="2" t="inlineStr">
         <is>
-          <t>R$ 227.70</t>
+          <t>R$ 227.84</t>
         </is>
       </c>
     </row>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="C492" s="2" t="inlineStr">
         <is>
-          <t>R$ 227.01</t>
+          <t>R$ 227.15</t>
         </is>
       </c>
     </row>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="C493" s="2" t="inlineStr">
         <is>
-          <t>R$ 227.01</t>
+          <t>R$ 227.15</t>
         </is>
       </c>
     </row>
@@ -8839,7 +8839,7 @@
       </c>
       <c r="C494" s="2" t="inlineStr">
         <is>
-          <t>R$ 226.70</t>
+          <t>R$ 226.84</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="C495" s="2" t="inlineStr">
         <is>
-          <t>R$ 226.39</t>
+          <t>R$ 226.53</t>
         </is>
       </c>
     </row>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="C496" s="2" t="inlineStr">
         <is>
-          <t>R$ 226.33</t>
+          <t>R$ 226.47</t>
         </is>
       </c>
     </row>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="C497" s="2" t="inlineStr">
         <is>
-          <t>R$ 226.20</t>
+          <t>R$ 226.34</t>
         </is>
       </c>
     </row>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="C498" s="2" t="inlineStr">
         <is>
-          <t>R$ 226.14</t>
+          <t>R$ 226.28</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="C499" s="2" t="inlineStr">
         <is>
-          <t>R$ 225.64</t>
+          <t>R$ 225.78</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="C500" s="2" t="inlineStr">
         <is>
-          <t>R$ 224.89</t>
+          <t>R$ 225.03</t>
         </is>
       </c>
     </row>
@@ -8958,7 +8958,7 @@
       </c>
       <c r="C501" s="2" t="inlineStr">
         <is>
-          <t>R$ 224.58</t>
+          <t>R$ 224.72</t>
         </is>
       </c>
     </row>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="C502" s="2" t="inlineStr">
         <is>
-          <t>R$ 224.33</t>
+          <t>R$ 224.47</t>
         </is>
       </c>
     </row>
@@ -8992,7 +8992,7 @@
       </c>
       <c r="C503" s="2" t="inlineStr">
         <is>
-          <t>R$ 224.08</t>
+          <t>R$ 224.22</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="C504" s="2" t="inlineStr">
         <is>
-          <t>R$ 223.83</t>
+          <t>R$ 223.97</t>
         </is>
       </c>
     </row>
@@ -9026,7 +9026,7 @@
       </c>
       <c r="C505" s="2" t="inlineStr">
         <is>
-          <t>R$ 223.27</t>
+          <t>R$ 223.41</t>
         </is>
       </c>
     </row>
@@ -9043,7 +9043,7 @@
       </c>
       <c r="C506" s="2" t="inlineStr">
         <is>
-          <t>R$ 222.52</t>
+          <t>R$ 222.66</t>
         </is>
       </c>
     </row>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="C507" s="2" t="inlineStr">
         <is>
-          <t>R$ 222.52</t>
+          <t>R$ 222.66</t>
         </is>
       </c>
     </row>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="C508" s="2" t="inlineStr">
         <is>
-          <t>R$ 222.46</t>
+          <t>R$ 222.60</t>
         </is>
       </c>
     </row>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="C509" s="2" t="inlineStr">
         <is>
-          <t>R$ 222.27</t>
+          <t>R$ 222.41</t>
         </is>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="C510" s="2" t="inlineStr">
         <is>
-          <t>R$ 222.15</t>
+          <t>R$ 222.28</t>
         </is>
       </c>
     </row>
@@ -9128,7 +9128,7 @@
       </c>
       <c r="C511" s="2" t="inlineStr">
         <is>
-          <t>R$ 221.02</t>
+          <t>R$ 221.16</t>
         </is>
       </c>
     </row>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="C512" s="2" t="inlineStr">
         <is>
-          <t>R$ 220.52</t>
+          <t>R$ 220.66</t>
         </is>
       </c>
     </row>
@@ -9162,7 +9162,7 @@
       </c>
       <c r="C513" s="2" t="inlineStr">
         <is>
-          <t>R$ 220.09</t>
+          <t>R$ 220.22</t>
         </is>
       </c>
     </row>
@@ -9179,7 +9179,7 @@
       </c>
       <c r="C514" s="2" t="inlineStr">
         <is>
-          <t>R$ 220.09</t>
+          <t>R$ 220.22</t>
         </is>
       </c>
     </row>
@@ -9196,7 +9196,7 @@
       </c>
       <c r="C515" s="2" t="inlineStr">
         <is>
-          <t>R$ 218.78</t>
+          <t>R$ 218.91</t>
         </is>
       </c>
     </row>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="C516" s="2" t="inlineStr">
         <is>
-          <t>R$ 218.47</t>
+          <t>R$ 218.60</t>
         </is>
       </c>
     </row>
@@ -9230,7 +9230,7 @@
       </c>
       <c r="C517" s="2" t="inlineStr">
         <is>
-          <t>R$ 218.40</t>
+          <t>R$ 218.54</t>
         </is>
       </c>
     </row>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="C518" s="2" t="inlineStr">
         <is>
-          <t>R$ 218.22</t>
+          <t>R$ 218.35</t>
         </is>
       </c>
     </row>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="C519" s="2" t="inlineStr">
         <is>
-          <t>R$ 218.09</t>
+          <t>R$ 218.23</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="C520" s="2" t="inlineStr">
         <is>
-          <t>R$ 218.03</t>
+          <t>R$ 218.16</t>
         </is>
       </c>
     </row>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="C521" s="2" t="inlineStr">
         <is>
-          <t>R$ 217.90</t>
+          <t>R$ 218.04</t>
         </is>
       </c>
     </row>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="C522" s="2" t="inlineStr">
         <is>
-          <t>R$ 217.03</t>
+          <t>R$ 217.17</t>
         </is>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="C523" s="2" t="inlineStr">
         <is>
-          <t>R$ 216.91</t>
+          <t>R$ 217.04</t>
         </is>
       </c>
     </row>
@@ -9349,7 +9349,7 @@
       </c>
       <c r="C524" s="2" t="inlineStr">
         <is>
-          <t>R$ 216.91</t>
+          <t>R$ 217.04</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="C525" s="2" t="inlineStr">
         <is>
-          <t>R$ 216.72</t>
+          <t>R$ 216.85</t>
         </is>
       </c>
     </row>
@@ -9383,7 +9383,7 @@
       </c>
       <c r="C526" s="2" t="inlineStr">
         <is>
-          <t>R$ 216.59</t>
+          <t>R$ 216.73</t>
         </is>
       </c>
     </row>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="C527" s="2" t="inlineStr">
         <is>
-          <t>R$ 216.16</t>
+          <t>R$ 216.29</t>
         </is>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="C528" s="2" t="inlineStr">
         <is>
-          <t>R$ 215.60</t>
+          <t>R$ 215.73</t>
         </is>
       </c>
     </row>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="C529" s="2" t="inlineStr">
         <is>
-          <t>R$ 215.41</t>
+          <t>R$ 215.54</t>
         </is>
       </c>
     </row>
@@ -9451,7 +9451,7 @@
       </c>
       <c r="C530" s="2" t="inlineStr">
         <is>
-          <t>R$ 215.22</t>
+          <t>R$ 215.36</t>
         </is>
       </c>
     </row>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="C531" s="2" t="inlineStr">
         <is>
-          <t>R$ 214.66</t>
+          <t>R$ 214.79</t>
         </is>
       </c>
     </row>
@@ -9485,7 +9485,7 @@
       </c>
       <c r="C532" s="2" t="inlineStr">
         <is>
-          <t>R$ 214.10</t>
+          <t>R$ 214.23</t>
         </is>
       </c>
     </row>
@@ -9502,7 +9502,7 @@
       </c>
       <c r="C533" s="2" t="inlineStr">
         <is>
-          <t>R$ 213.47</t>
+          <t>R$ 213.61</t>
         </is>
       </c>
     </row>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="C534" s="2" t="inlineStr">
         <is>
-          <t>R$ 213.35</t>
+          <t>R$ 213.48</t>
         </is>
       </c>
     </row>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="C535" s="2" t="inlineStr">
         <is>
-          <t>R$ 212.91</t>
+          <t>R$ 213.05</t>
         </is>
       </c>
     </row>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="C536" s="2" t="inlineStr">
         <is>
-          <t>R$ 212.48</t>
+          <t>R$ 212.61</t>
         </is>
       </c>
     </row>
@@ -9570,7 +9570,7 @@
       </c>
       <c r="C537" s="2" t="inlineStr">
         <is>
-          <t>R$ 212.10</t>
+          <t>R$ 212.23</t>
         </is>
       </c>
     </row>
@@ -9587,7 +9587,7 @@
       </c>
       <c r="C538" s="2" t="inlineStr">
         <is>
-          <t>R$ 211.92</t>
+          <t>R$ 212.05</t>
         </is>
       </c>
     </row>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="C539" s="2" t="inlineStr">
         <is>
-          <t>R$ 211.79</t>
+          <t>R$ 211.92</t>
         </is>
       </c>
     </row>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="C540" s="2" t="inlineStr">
         <is>
-          <t>R$ 211.60</t>
+          <t>R$ 211.74</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="C541" s="2" t="inlineStr">
         <is>
-          <t>R$ 210.73</t>
+          <t>R$ 210.86</t>
         </is>
       </c>
     </row>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="C542" s="2" t="inlineStr">
         <is>
-          <t>R$ 209.79</t>
+          <t>R$ 209.93</t>
         </is>
       </c>
     </row>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="C543" s="2" t="inlineStr">
         <is>
-          <t>R$ 208.17</t>
+          <t>R$ 208.30</t>
         </is>
       </c>
     </row>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="C544" s="2" t="inlineStr">
         <is>
-          <t>R$ 207.98</t>
+          <t>R$ 208.11</t>
         </is>
       </c>
     </row>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="C545" s="2" t="inlineStr">
         <is>
-          <t>R$ 207.98</t>
+          <t>R$ 208.11</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="C546" s="2" t="inlineStr">
         <is>
-          <t>R$ 207.67</t>
+          <t>R$ 207.80</t>
         </is>
       </c>
     </row>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="C547" s="2" t="inlineStr">
         <is>
-          <t>R$ 207.49</t>
+          <t>R$ 207.62</t>
         </is>
       </c>
     </row>
@@ -9757,7 +9757,7 @@
       </c>
       <c r="C548" s="2" t="inlineStr">
         <is>
-          <t>R$ 207.49</t>
+          <t>R$ 207.62</t>
         </is>
       </c>
     </row>
@@ -9774,7 +9774,7 @@
       </c>
       <c r="C549" s="2" t="inlineStr">
         <is>
-          <t>R$ 207.30</t>
+          <t>R$ 207.43</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="C550" s="2" t="inlineStr">
         <is>
-          <t>R$ 206.92</t>
+          <t>R$ 207.05</t>
         </is>
       </c>
     </row>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="C551" s="2" t="inlineStr">
         <is>
-          <t>R$ 206.74</t>
+          <t>R$ 206.87</t>
         </is>
       </c>
     </row>
@@ -9825,7 +9825,7 @@
       </c>
       <c r="C552" s="2" t="inlineStr">
         <is>
-          <t>R$ 206.74</t>
+          <t>R$ 206.87</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="C553" s="2" t="inlineStr">
         <is>
-          <t>R$ 205.68</t>
+          <t>R$ 205.81</t>
         </is>
       </c>
     </row>
@@ -9859,7 +9859,7 @@
       </c>
       <c r="C554" s="2" t="inlineStr">
         <is>
-          <t>R$ 205.43</t>
+          <t>R$ 205.56</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="C555" s="2" t="inlineStr">
         <is>
-          <t>R$ 205.05</t>
+          <t>R$ 205.18</t>
         </is>
       </c>
     </row>
@@ -9893,7 +9893,7 @@
       </c>
       <c r="C556" s="2" t="inlineStr">
         <is>
-          <t>R$ 204.24</t>
+          <t>R$ 204.37</t>
         </is>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
       </c>
       <c r="C557" s="2" t="inlineStr">
         <is>
-          <t>R$ 203.43</t>
+          <t>R$ 203.56</t>
         </is>
       </c>
     </row>
@@ -9927,7 +9927,7 @@
       </c>
       <c r="C558" s="2" t="inlineStr">
         <is>
-          <t>R$ 202.68</t>
+          <t>R$ 202.81</t>
         </is>
       </c>
     </row>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="C559" s="2" t="inlineStr">
         <is>
-          <t>R$ 202.25</t>
+          <t>R$ 202.37</t>
         </is>
       </c>
     </row>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="C560" s="2" t="inlineStr">
         <is>
-          <t>R$ 202.00</t>
+          <t>R$ 202.12</t>
         </is>
       </c>
     </row>
@@ -9978,7 +9978,7 @@
       </c>
       <c r="C561" s="2" t="inlineStr">
         <is>
-          <t>R$ 201.87</t>
+          <t>R$ 202.00</t>
         </is>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="C562" s="2" t="inlineStr">
         <is>
-          <t>R$ 201.87</t>
+          <t>R$ 202.00</t>
         </is>
       </c>
     </row>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="C563" s="2" t="inlineStr">
         <is>
-          <t>R$ 201.81</t>
+          <t>R$ 201.94</t>
         </is>
       </c>
     </row>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="C564" s="2" t="inlineStr">
         <is>
-          <t>R$ 201.75</t>
+          <t>R$ 201.87</t>
         </is>
       </c>
     </row>
@@ -10046,7 +10046,7 @@
       </c>
       <c r="C565" s="2" t="inlineStr">
         <is>
-          <t>R$ 201.50</t>
+          <t>R$ 201.62</t>
         </is>
       </c>
     </row>
@@ -10063,7 +10063,7 @@
       </c>
       <c r="C566" s="2" t="inlineStr">
         <is>
-          <t>R$ 201.12</t>
+          <t>R$ 201.25</t>
         </is>
       </c>
     </row>
@@ -10080,7 +10080,7 @@
       </c>
       <c r="C567" s="2" t="inlineStr">
         <is>
-          <t>R$ 199.69</t>
+          <t>R$ 199.81</t>
         </is>
       </c>
     </row>
@@ -10097,7 +10097,7 @@
       </c>
       <c r="C568" s="2" t="inlineStr">
         <is>
-          <t>R$ 199.63</t>
+          <t>R$ 199.75</t>
         </is>
       </c>
     </row>
@@ -10114,7 +10114,7 @@
       </c>
       <c r="C569" s="2" t="inlineStr">
         <is>
-          <t>R$ 199.31</t>
+          <t>R$ 199.44</t>
         </is>
       </c>
     </row>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="C570" s="2" t="inlineStr">
         <is>
-          <t>R$ 198.69</t>
+          <t>R$ 198.81</t>
         </is>
       </c>
     </row>
@@ -10148,7 +10148,7 @@
       </c>
       <c r="C571" s="2" t="inlineStr">
         <is>
-          <t>R$ 198.19</t>
+          <t>R$ 198.31</t>
         </is>
       </c>
     </row>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="C572" s="2" t="inlineStr">
         <is>
-          <t>R$ 197.69</t>
+          <t>R$ 197.82</t>
         </is>
       </c>
     </row>
@@ -10182,7 +10182,7 @@
       </c>
       <c r="C573" s="2" t="inlineStr">
         <is>
-          <t>R$ 197.32</t>
+          <t>R$ 197.44</t>
         </is>
       </c>
     </row>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="C574" s="2" t="inlineStr">
         <is>
-          <t>R$ 197.32</t>
+          <t>R$ 197.44</t>
         </is>
       </c>
     </row>
@@ -10216,7 +10216,7 @@
       </c>
       <c r="C575" s="2" t="inlineStr">
         <is>
-          <t>R$ 197.01</t>
+          <t>R$ 197.13</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="C576" s="2" t="inlineStr">
         <is>
-          <t>R$ 197.01</t>
+          <t>R$ 197.13</t>
         </is>
       </c>
     </row>
@@ -10250,7 +10250,7 @@
       </c>
       <c r="C577" s="2" t="inlineStr">
         <is>
-          <t>R$ 196.44</t>
+          <t>R$ 196.57</t>
         </is>
       </c>
     </row>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="C578" s="2" t="inlineStr">
         <is>
-          <t>R$ 196.19</t>
+          <t>R$ 196.32</t>
         </is>
       </c>
     </row>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="C579" s="2" t="inlineStr">
         <is>
-          <t>R$ 195.76</t>
+          <t>R$ 195.88</t>
         </is>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="C580" s="2" t="inlineStr">
         <is>
-          <t>R$ 195.26</t>
+          <t>R$ 195.38</t>
         </is>
       </c>
     </row>
@@ -10318,7 +10318,7 @@
       </c>
       <c r="C581" s="2" t="inlineStr">
         <is>
-          <t>R$ 194.76</t>
+          <t>R$ 194.88</t>
         </is>
       </c>
     </row>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="C582" s="2" t="inlineStr">
         <is>
-          <t>R$ 194.57</t>
+          <t>R$ 194.69</t>
         </is>
       </c>
     </row>
@@ -10352,7 +10352,7 @@
       </c>
       <c r="C583" s="2" t="inlineStr">
         <is>
-          <t>R$ 194.14</t>
+          <t>R$ 194.26</t>
         </is>
       </c>
     </row>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="C584" s="2" t="inlineStr">
         <is>
-          <t>R$ 193.70</t>
+          <t>R$ 193.82</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="C585" s="2" t="inlineStr">
         <is>
-          <t>R$ 193.64</t>
+          <t>R$ 193.76</t>
         </is>
       </c>
     </row>
@@ -10403,7 +10403,7 @@
       </c>
       <c r="C586" s="2" t="inlineStr">
         <is>
-          <t>R$ 193.08</t>
+          <t>R$ 193.20</t>
         </is>
       </c>
     </row>
@@ -10420,7 +10420,7 @@
       </c>
       <c r="C587" s="2" t="inlineStr">
         <is>
-          <t>R$ 192.70</t>
+          <t>R$ 192.82</t>
         </is>
       </c>
     </row>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="C588" s="2" t="inlineStr">
         <is>
-          <t>R$ 192.20</t>
+          <t>R$ 192.32</t>
         </is>
       </c>
     </row>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="C589" s="2" t="inlineStr">
         <is>
-          <t>R$ 192.14</t>
+          <t>R$ 192.26</t>
         </is>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="C590" s="2" t="inlineStr">
         <is>
-          <t>R$ 191.27</t>
+          <t>R$ 191.39</t>
         </is>
       </c>
     </row>
@@ -10488,7 +10488,7 @@
       </c>
       <c r="C591" s="2" t="inlineStr">
         <is>
-          <t>R$ 190.89</t>
+          <t>R$ 191.01</t>
         </is>
       </c>
     </row>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="C592" s="2" t="inlineStr">
         <is>
-          <t>R$ 190.89</t>
+          <t>R$ 191.01</t>
         </is>
       </c>
     </row>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="C593" s="2" t="inlineStr">
         <is>
-          <t>R$ 190.70</t>
+          <t>R$ 190.82</t>
         </is>
       </c>
     </row>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="C594" s="2" t="inlineStr">
         <is>
-          <t>R$ 190.52</t>
+          <t>R$ 190.64</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="C595" s="2" t="inlineStr">
         <is>
-          <t>R$ 190.39</t>
+          <t>R$ 190.51</t>
         </is>
       </c>
     </row>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="C596" s="2" t="inlineStr">
         <is>
-          <t>R$ 190.14</t>
+          <t>R$ 190.26</t>
         </is>
       </c>
     </row>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="C597" s="2" t="inlineStr">
         <is>
-          <t>R$ 188.71</t>
+          <t>R$ 188.83</t>
         </is>
       </c>
     </row>
@@ -10607,7 +10607,7 @@
       </c>
       <c r="C598" s="2" t="inlineStr">
         <is>
-          <t>R$ 187.34</t>
+          <t>R$ 187.45</t>
         </is>
       </c>
     </row>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="C599" s="2" t="inlineStr">
         <is>
-          <t>R$ 187.15</t>
+          <t>R$ 187.27</t>
         </is>
       </c>
     </row>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="C600" s="2" t="inlineStr">
         <is>
-          <t>R$ 187.09</t>
+          <t>R$ 187.20</t>
         </is>
       </c>
     </row>
@@ -10658,7 +10658,7 @@
       </c>
       <c r="C601" s="2" t="inlineStr">
         <is>
-          <t>R$ 186.71</t>
+          <t>R$ 186.83</t>
         </is>
       </c>
     </row>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="C602" s="2" t="inlineStr">
         <is>
-          <t>R$ 186.34</t>
+          <t>R$ 186.45</t>
         </is>
       </c>
     </row>
@@ -10692,7 +10692,7 @@
       </c>
       <c r="C603" s="2" t="inlineStr">
         <is>
-          <t>R$ 186.34</t>
+          <t>R$ 186.45</t>
         </is>
       </c>
     </row>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="C604" s="2" t="inlineStr">
         <is>
-          <t>R$ 186.21</t>
+          <t>R$ 186.33</t>
         </is>
       </c>
     </row>
@@ -10726,7 +10726,7 @@
       </c>
       <c r="C605" s="2" t="inlineStr">
         <is>
-          <t>R$ 186.03</t>
+          <t>R$ 186.14</t>
         </is>
       </c>
     </row>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="C606" s="2" t="inlineStr">
         <is>
-          <t>R$ 185.28</t>
+          <t>R$ 185.39</t>
         </is>
       </c>
     </row>
@@ -10760,7 +10760,7 @@
       </c>
       <c r="C607" s="2" t="inlineStr">
         <is>
-          <t>R$ 185.22</t>
+          <t>R$ 185.33</t>
         </is>
       </c>
     </row>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="C608" s="2" t="inlineStr">
         <is>
-          <t>R$ 184.97</t>
+          <t>R$ 185.08</t>
         </is>
       </c>
     </row>
@@ -10794,7 +10794,7 @@
       </c>
       <c r="C609" s="2" t="inlineStr">
         <is>
-          <t>R$ 184.90</t>
+          <t>R$ 185.02</t>
         </is>
       </c>
     </row>
@@ -10811,7 +10811,7 @@
       </c>
       <c r="C610" s="2" t="inlineStr">
         <is>
-          <t>R$ 184.90</t>
+          <t>R$ 185.02</t>
         </is>
       </c>
     </row>
@@ -10828,7 +10828,7 @@
       </c>
       <c r="C611" s="2" t="inlineStr">
         <is>
-          <t>R$ 183.91</t>
+          <t>R$ 184.02</t>
         </is>
       </c>
     </row>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="C612" s="2" t="inlineStr">
         <is>
-          <t>R$ 183.72</t>
+          <t>R$ 183.83</t>
         </is>
       </c>
     </row>
@@ -10862,7 +10862,7 @@
       </c>
       <c r="C613" s="2" t="inlineStr">
         <is>
-          <t>R$ 183.41</t>
+          <t>R$ 183.52</t>
         </is>
       </c>
     </row>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="C614" s="2" t="inlineStr">
         <is>
-          <t>R$ 183.28</t>
+          <t>R$ 183.40</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="C615" s="2" t="inlineStr">
         <is>
-          <t>R$ 181.97</t>
+          <t>R$ 182.08</t>
         </is>
       </c>
     </row>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="C616" s="2" t="inlineStr">
         <is>
-          <t>R$ 181.78</t>
+          <t>R$ 181.90</t>
         </is>
       </c>
     </row>
@@ -10930,7 +10930,7 @@
       </c>
       <c r="C617" s="2" t="inlineStr">
         <is>
-          <t>R$ 181.78</t>
+          <t>R$ 181.90</t>
         </is>
       </c>
     </row>
@@ -10947,7 +10947,7 @@
       </c>
       <c r="C618" s="2" t="inlineStr">
         <is>
-          <t>R$ 181.28</t>
+          <t>R$ 181.40</t>
         </is>
       </c>
     </row>
@@ -10964,7 +10964,7 @@
       </c>
       <c r="C619" s="2" t="inlineStr">
         <is>
-          <t>R$ 181.16</t>
+          <t>R$ 181.27</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="C620" s="2" t="inlineStr">
         <is>
-          <t>R$ 180.91</t>
+          <t>R$ 181.02</t>
         </is>
       </c>
     </row>
@@ -10998,7 +10998,7 @@
       </c>
       <c r="C621" s="2" t="inlineStr">
         <is>
-          <t>R$ 180.85</t>
+          <t>R$ 180.96</t>
         </is>
       </c>
     </row>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="C622" s="2" t="inlineStr">
         <is>
-          <t>R$ 180.47</t>
+          <t>R$ 180.59</t>
         </is>
       </c>
     </row>
@@ -11032,7 +11032,7 @@
       </c>
       <c r="C623" s="2" t="inlineStr">
         <is>
-          <t>R$ 180.29</t>
+          <t>R$ 180.40</t>
         </is>
       </c>
     </row>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="C624" s="2" t="inlineStr">
         <is>
-          <t>R$ 180.16</t>
+          <t>R$ 180.27</t>
         </is>
       </c>
     </row>
@@ -11066,7 +11066,7 @@
       </c>
       <c r="C625" s="2" t="inlineStr">
         <is>
-          <t>R$ 179.97</t>
+          <t>R$ 180.09</t>
         </is>
       </c>
     </row>
@@ -11083,7 +11083,7 @@
       </c>
       <c r="C626" s="2" t="inlineStr">
         <is>
-          <t>R$ 179.79</t>
+          <t>R$ 179.90</t>
         </is>
       </c>
     </row>
@@ -11100,7 +11100,7 @@
       </c>
       <c r="C627" s="2" t="inlineStr">
         <is>
-          <t>R$ 179.73</t>
+          <t>R$ 179.84</t>
         </is>
       </c>
     </row>
@@ -11117,7 +11117,7 @@
       </c>
       <c r="C628" s="2" t="inlineStr">
         <is>
-          <t>R$ 179.66</t>
+          <t>R$ 179.78</t>
         </is>
       </c>
     </row>
@@ -11134,7 +11134,7 @@
       </c>
       <c r="C629" s="2" t="inlineStr">
         <is>
-          <t>R$ 179.48</t>
+          <t>R$ 179.59</t>
         </is>
       </c>
     </row>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="C630" s="2" t="inlineStr">
         <is>
-          <t>R$ 179.48</t>
+          <t>R$ 179.59</t>
         </is>
       </c>
     </row>
@@ -11168,7 +11168,7 @@
       </c>
       <c r="C631" s="2" t="inlineStr">
         <is>
-          <t>R$ 178.29</t>
+          <t>R$ 178.40</t>
         </is>
       </c>
     </row>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="C632" s="2" t="inlineStr">
         <is>
-          <t>R$ 178.04</t>
+          <t>R$ 178.15</t>
         </is>
       </c>
     </row>
@@ -11202,7 +11202,7 @@
       </c>
       <c r="C633" s="2" t="inlineStr">
         <is>
-          <t>R$ 177.67</t>
+          <t>R$ 177.78</t>
         </is>
       </c>
     </row>
@@ -11219,7 +11219,7 @@
       </c>
       <c r="C634" s="2" t="inlineStr">
         <is>
-          <t>R$ 177.48</t>
+          <t>R$ 177.59</t>
         </is>
       </c>
     </row>
@@ -11236,7 +11236,7 @@
       </c>
       <c r="C635" s="2" t="inlineStr">
         <is>
-          <t>R$ 177.29</t>
+          <t>R$ 177.40</t>
         </is>
       </c>
     </row>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="C636" s="2" t="inlineStr">
         <is>
-          <t>R$ 177.23</t>
+          <t>R$ 177.34</t>
         </is>
       </c>
     </row>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="C637" s="2" t="inlineStr">
         <is>
-          <t>R$ 176.79</t>
+          <t>R$ 176.90</t>
         </is>
       </c>
     </row>
@@ -11287,7 +11287,7 @@
       </c>
       <c r="C638" s="2" t="inlineStr">
         <is>
-          <t>R$ 176.79</t>
+          <t>R$ 176.90</t>
         </is>
       </c>
     </row>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="C639" s="2" t="inlineStr">
         <is>
-          <t>R$ 176.67</t>
+          <t>R$ 176.78</t>
         </is>
       </c>
     </row>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="C640" s="2" t="inlineStr">
         <is>
-          <t>R$ 176.29</t>
+          <t>R$ 176.40</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       </c>
       <c r="C641" s="2" t="inlineStr">
         <is>
-          <t>R$ 176.23</t>
+          <t>R$ 176.34</t>
         </is>
       </c>
     </row>
@@ -11355,7 +11355,7 @@
       </c>
       <c r="C642" s="2" t="inlineStr">
         <is>
-          <t>R$ 176.11</t>
+          <t>R$ 176.22</t>
         </is>
       </c>
     </row>
@@ -11372,7 +11372,7 @@
       </c>
       <c r="C643" s="2" t="inlineStr">
         <is>
-          <t>R$ 175.48</t>
+          <t>R$ 175.59</t>
         </is>
       </c>
     </row>
@@ -11389,7 +11389,7 @@
       </c>
       <c r="C644" s="2" t="inlineStr">
         <is>
-          <t>R$ 175.23</t>
+          <t>R$ 175.34</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11406,7 @@
       </c>
       <c r="C645" s="2" t="inlineStr">
         <is>
-          <t>R$ 175.17</t>
+          <t>R$ 175.28</t>
         </is>
       </c>
     </row>
@@ -11423,7 +11423,7 @@
       </c>
       <c r="C646" s="2" t="inlineStr">
         <is>
-          <t>R$ 175.11</t>
+          <t>R$ 175.22</t>
         </is>
       </c>
     </row>
@@ -11440,7 +11440,7 @@
       </c>
       <c r="C647" s="2" t="inlineStr">
         <is>
-          <t>R$ 174.86</t>
+          <t>R$ 174.97</t>
         </is>
       </c>
     </row>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="C648" s="2" t="inlineStr">
         <is>
-          <t>R$ 174.73</t>
+          <t>R$ 174.84</t>
         </is>
       </c>
     </row>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="C649" s="2" t="inlineStr">
         <is>
-          <t>R$ 173.99</t>
+          <t>R$ 174.09</t>
         </is>
       </c>
     </row>
@@ -11491,7 +11491,7 @@
       </c>
       <c r="C650" s="2" t="inlineStr">
         <is>
-          <t>R$ 173.92</t>
+          <t>R$ 174.03</t>
         </is>
       </c>
     </row>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="C651" s="2" t="inlineStr">
         <is>
-          <t>R$ 173.92</t>
+          <t>R$ 174.03</t>
         </is>
       </c>
     </row>
@@ -11525,7 +11525,7 @@
       </c>
       <c r="C652" s="2" t="inlineStr">
         <is>
-          <t>R$ 173.92</t>
+          <t>R$ 174.03</t>
         </is>
       </c>
     </row>
@@ -11542,7 +11542,7 @@
       </c>
       <c r="C653" s="2" t="inlineStr">
         <is>
-          <t>R$ 173.42</t>
+          <t>R$ 173.53</t>
         </is>
       </c>
     </row>
@@ -11559,7 +11559,7 @@
       </c>
       <c r="C654" s="2" t="inlineStr">
         <is>
-          <t>R$ 172.80</t>
+          <t>R$ 172.91</t>
         </is>
       </c>
     </row>
@@ -11576,7 +11576,7 @@
       </c>
       <c r="C655" s="2" t="inlineStr">
         <is>
-          <t>R$ 172.30</t>
+          <t>R$ 172.41</t>
         </is>
       </c>
     </row>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="C656" s="2" t="inlineStr">
         <is>
-          <t>R$ 171.87</t>
+          <t>R$ 171.97</t>
         </is>
       </c>
     </row>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="C657" s="2" t="inlineStr">
         <is>
-          <t>R$ 171.12</t>
+          <t>R$ 171.22</t>
         </is>
       </c>
     </row>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="C658" s="2" t="inlineStr">
         <is>
-          <t>R$ 170.99</t>
+          <t>R$ 171.10</t>
         </is>
       </c>
     </row>
@@ -11644,7 +11644,7 @@
       </c>
       <c r="C659" s="2" t="inlineStr">
         <is>
-          <t>R$ 170.99</t>
+          <t>R$ 171.10</t>
         </is>
       </c>
     </row>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="C660" s="2" t="inlineStr">
         <is>
-          <t>R$ 170.74</t>
+          <t>R$ 170.85</t>
         </is>
       </c>
     </row>
@@ -11678,7 +11678,7 @@
       </c>
       <c r="C661" s="2" t="inlineStr">
         <is>
-          <t>R$ 170.62</t>
+          <t>R$ 170.72</t>
         </is>
       </c>
     </row>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="C662" s="2" t="inlineStr">
         <is>
-          <t>R$ 170.06</t>
+          <t>R$ 170.16</t>
         </is>
       </c>
     </row>
@@ -11712,7 +11712,7 @@
       </c>
       <c r="C663" s="2" t="inlineStr">
         <is>
-          <t>R$ 169.56</t>
+          <t>R$ 169.66</t>
         </is>
       </c>
     </row>
@@ -11729,7 +11729,7 @@
       </c>
       <c r="C664" s="2" t="inlineStr">
         <is>
-          <t>R$ 169.18</t>
+          <t>R$ 169.29</t>
         </is>
       </c>
     </row>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="C665" s="2" t="inlineStr">
         <is>
-          <t>R$ 169.00</t>
+          <t>R$ 169.10</t>
         </is>
       </c>
     </row>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="C666" s="2" t="inlineStr">
         <is>
-          <t>R$ 168.81</t>
+          <t>R$ 168.91</t>
         </is>
       </c>
     </row>
@@ -11780,7 +11780,7 @@
       </c>
       <c r="C667" s="2" t="inlineStr">
         <is>
-          <t>R$ 167.19</t>
+          <t>R$ 167.29</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="C668" s="2" t="inlineStr">
         <is>
-          <t>R$ 167.12</t>
+          <t>R$ 167.23</t>
         </is>
       </c>
     </row>
@@ -11814,7 +11814,7 @@
       </c>
       <c r="C669" s="2" t="inlineStr">
         <is>
-          <t>R$ 167.06</t>
+          <t>R$ 167.17</t>
         </is>
       </c>
     </row>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="C670" s="2" t="inlineStr">
         <is>
-          <t>R$ 167.00</t>
+          <t>R$ 167.10</t>
         </is>
       </c>
     </row>
@@ -11848,7 +11848,7 @@
       </c>
       <c r="C671" s="2" t="inlineStr">
         <is>
-          <t>R$ 166.31</t>
+          <t>R$ 166.42</t>
         </is>
       </c>
     </row>
@@ -11865,7 +11865,7 @@
       </c>
       <c r="C672" s="2" t="inlineStr">
         <is>
-          <t>R$ 165.81</t>
+          <t>R$ 165.92</t>
         </is>
       </c>
     </row>
@@ -11882,7 +11882,7 @@
       </c>
       <c r="C673" s="2" t="inlineStr">
         <is>
-          <t>R$ 164.75</t>
+          <t>R$ 164.86</t>
         </is>
       </c>
     </row>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="C674" s="2" t="inlineStr">
         <is>
-          <t>R$ 164.75</t>
+          <t>R$ 164.86</t>
         </is>
       </c>
     </row>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="C675" s="2" t="inlineStr">
         <is>
-          <t>R$ 164.25</t>
+          <t>R$ 164.36</t>
         </is>
       </c>
     </row>
@@ -11933,7 +11933,7 @@
       </c>
       <c r="C676" s="2" t="inlineStr">
         <is>
-          <t>R$ 163.82</t>
+          <t>R$ 163.92</t>
         </is>
       </c>
     </row>
@@ -11950,7 +11950,7 @@
       </c>
       <c r="C677" s="2" t="inlineStr">
         <is>
-          <t>R$ 163.44</t>
+          <t>R$ 163.55</t>
         </is>
       </c>
     </row>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="C678" s="2" t="inlineStr">
         <is>
-          <t>R$ 163.01</t>
+          <t>R$ 163.11</t>
         </is>
       </c>
     </row>
@@ -11984,7 +11984,7 @@
       </c>
       <c r="C679" s="2" t="inlineStr">
         <is>
-          <t>R$ 162.94</t>
+          <t>R$ 163.05</t>
         </is>
       </c>
     </row>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="C680" s="2" t="inlineStr">
         <is>
-          <t>R$ 162.76</t>
+          <t>R$ 162.86</t>
         </is>
       </c>
     </row>
@@ -12018,7 +12018,7 @@
       </c>
       <c r="C681" s="2" t="inlineStr">
         <is>
-          <t>R$ 162.69</t>
+          <t>R$ 162.80</t>
         </is>
       </c>
     </row>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="C682" s="2" t="inlineStr">
         <is>
-          <t>R$ 162.07</t>
+          <t>R$ 162.17</t>
         </is>
       </c>
     </row>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="C683" s="2" t="inlineStr">
         <is>
-          <t>R$ 161.63</t>
+          <t>R$ 161.74</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="C684" s="2" t="inlineStr">
         <is>
-          <t>R$ 161.51</t>
+          <t>R$ 161.61</t>
         </is>
       </c>
     </row>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="C685" s="2" t="inlineStr">
         <is>
-          <t>R$ 161.26</t>
+          <t>R$ 161.36</t>
         </is>
       </c>
     </row>
@@ -12103,7 +12103,7 @@
       </c>
       <c r="C686" s="2" t="inlineStr">
         <is>
-          <t>R$ 161.14</t>
+          <t>R$ 161.24</t>
         </is>
       </c>
     </row>
@@ -12120,7 +12120,7 @@
       </c>
       <c r="C687" s="2" t="inlineStr">
         <is>
-          <t>R$ 161.14</t>
+          <t>R$ 161.24</t>
         </is>
       </c>
     </row>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="C688" s="2" t="inlineStr">
         <is>
-          <t>R$ 160.76</t>
+          <t>R$ 160.86</t>
         </is>
       </c>
     </row>
@@ -12154,7 +12154,7 @@
       </c>
       <c r="C689" s="2" t="inlineStr">
         <is>
-          <t>R$ 159.39</t>
+          <t>R$ 159.49</t>
         </is>
       </c>
     </row>
@@ -12171,7 +12171,7 @@
       </c>
       <c r="C690" s="2" t="inlineStr">
         <is>
-          <t>R$ 159.20</t>
+          <t>R$ 159.30</t>
         </is>
       </c>
     </row>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="C691" s="2" t="inlineStr">
         <is>
-          <t>R$ 158.95</t>
+          <t>R$ 159.05</t>
         </is>
       </c>
     </row>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="C692" s="2" t="inlineStr">
         <is>
-          <t>R$ 158.45</t>
+          <t>R$ 158.55</t>
         </is>
       </c>
     </row>
@@ -12222,7 +12222,7 @@
       </c>
       <c r="C693" s="2" t="inlineStr">
         <is>
-          <t>R$ 158.33</t>
+          <t>R$ 158.43</t>
         </is>
       </c>
     </row>
@@ -12239,7 +12239,7 @@
       </c>
       <c r="C694" s="2" t="inlineStr">
         <is>
-          <t>R$ 158.27</t>
+          <t>R$ 158.36</t>
         </is>
       </c>
     </row>
@@ -12256,7 +12256,7 @@
       </c>
       <c r="C695" s="2" t="inlineStr">
         <is>
-          <t>R$ 157.64</t>
+          <t>R$ 157.74</t>
         </is>
       </c>
     </row>
@@ -12273,7 +12273,7 @@
       </c>
       <c r="C696" s="2" t="inlineStr">
         <is>
-          <t>R$ 156.89</t>
+          <t>R$ 156.99</t>
         </is>
       </c>
     </row>
@@ -12290,7 +12290,7 @@
       </c>
       <c r="C697" s="2" t="inlineStr">
         <is>
-          <t>R$ 156.46</t>
+          <t>R$ 156.55</t>
         </is>
       </c>
     </row>
@@ -12307,7 +12307,7 @@
       </c>
       <c r="C698" s="2" t="inlineStr">
         <is>
-          <t>R$ 156.33</t>
+          <t>R$ 156.43</t>
         </is>
       </c>
     </row>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="C699" s="2" t="inlineStr">
         <is>
-          <t>R$ 156.08</t>
+          <t>R$ 156.18</t>
         </is>
       </c>
     </row>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="C700" s="2" t="inlineStr">
         <is>
-          <t>R$ 156.08</t>
+          <t>R$ 156.18</t>
         </is>
       </c>
     </row>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="C701" s="2" t="inlineStr">
         <is>
-          <t>R$ 156.02</t>
+          <t>R$ 156.12</t>
         </is>
       </c>
     </row>
@@ -12375,7 +12375,7 @@
       </c>
       <c r="C702" s="2" t="inlineStr">
         <is>
-          <t>R$ 156.02</t>
+          <t>R$ 156.12</t>
         </is>
       </c>
     </row>
@@ -12392,7 +12392,7 @@
       </c>
       <c r="C703" s="2" t="inlineStr">
         <is>
-          <t>R$ 155.71</t>
+          <t>R$ 155.81</t>
         </is>
       </c>
     </row>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="C704" s="2" t="inlineStr">
         <is>
-          <t>R$ 155.40</t>
+          <t>R$ 155.49</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12426,7 @@
       </c>
       <c r="C705" s="2" t="inlineStr">
         <is>
-          <t>R$ 155.27</t>
+          <t>R$ 155.37</t>
         </is>
       </c>
     </row>
@@ -12443,7 +12443,7 @@
       </c>
       <c r="C706" s="2" t="inlineStr">
         <is>
-          <t>R$ 154.71</t>
+          <t>R$ 154.81</t>
         </is>
       </c>
     </row>
@@ -12460,7 +12460,7 @@
       </c>
       <c r="C707" s="2" t="inlineStr">
         <is>
-          <t>R$ 154.27</t>
+          <t>R$ 154.37</t>
         </is>
       </c>
     </row>
@@ -12477,7 +12477,7 @@
       </c>
       <c r="C708" s="2" t="inlineStr">
         <is>
-          <t>R$ 154.21</t>
+          <t>R$ 154.31</t>
         </is>
       </c>
     </row>
@@ -12494,7 +12494,7 @@
       </c>
       <c r="C709" s="2" t="inlineStr">
         <is>
-          <t>R$ 154.21</t>
+          <t>R$ 154.31</t>
         </is>
       </c>
     </row>
@@ -12511,7 +12511,7 @@
       </c>
       <c r="C710" s="2" t="inlineStr">
         <is>
-          <t>R$ 154.09</t>
+          <t>R$ 154.18</t>
         </is>
       </c>
     </row>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="C711" s="2" t="inlineStr">
         <is>
-          <t>R$ 153.52</t>
+          <t>R$ 153.62</t>
         </is>
       </c>
     </row>
@@ -12545,7 +12545,7 @@
       </c>
       <c r="C712" s="2" t="inlineStr">
         <is>
-          <t>R$ 153.28</t>
+          <t>R$ 153.37</t>
         </is>
       </c>
     </row>
@@ -12562,7 +12562,7 @@
       </c>
       <c r="C713" s="2" t="inlineStr">
         <is>
-          <t>R$ 153.28</t>
+          <t>R$ 153.37</t>
         </is>
       </c>
     </row>
@@ -12579,7 +12579,7 @@
       </c>
       <c r="C714" s="2" t="inlineStr">
         <is>
-          <t>R$ 153.15</t>
+          <t>R$ 153.25</t>
         </is>
       </c>
     </row>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="C715" s="2" t="inlineStr">
         <is>
-          <t>R$ 152.71</t>
+          <t>R$ 152.81</t>
         </is>
       </c>
     </row>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="C716" s="2" t="inlineStr">
         <is>
-          <t>R$ 152.34</t>
+          <t>R$ 152.43</t>
         </is>
       </c>
     </row>
@@ -12630,7 +12630,7 @@
       </c>
       <c r="C717" s="2" t="inlineStr">
         <is>
-          <t>R$ 150.78</t>
+          <t>R$ 150.87</t>
         </is>
       </c>
     </row>
@@ -12647,7 +12647,7 @@
       </c>
       <c r="C718" s="2" t="inlineStr">
         <is>
-          <t>R$ 150.47</t>
+          <t>R$ 150.56</t>
         </is>
       </c>
     </row>
@@ -12664,7 +12664,7 @@
       </c>
       <c r="C719" s="2" t="inlineStr">
         <is>
-          <t>R$ 149.97</t>
+          <t>R$ 150.06</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="C720" s="2" t="inlineStr">
         <is>
-          <t>R$ 149.66</t>
+          <t>R$ 149.75</t>
         </is>
       </c>
     </row>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="C721" s="2" t="inlineStr">
         <is>
-          <t>R$ 149.10</t>
+          <t>R$ 149.19</t>
         </is>
       </c>
     </row>
@@ -12715,7 +12715,7 @@
       </c>
       <c r="C722" s="2" t="inlineStr">
         <is>
-          <t>R$ 149.03</t>
+          <t>R$ 149.13</t>
         </is>
       </c>
     </row>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="C723" s="2" t="inlineStr">
         <is>
-          <t>R$ 148.97</t>
+          <t>R$ 149.06</t>
         </is>
       </c>
     </row>
@@ -12749,7 +12749,7 @@
       </c>
       <c r="C724" s="2" t="inlineStr">
         <is>
-          <t>R$ 148.60</t>
+          <t>R$ 148.69</t>
         </is>
       </c>
     </row>
@@ -12766,7 +12766,7 @@
       </c>
       <c r="C725" s="2" t="inlineStr">
         <is>
-          <t>R$ 147.41</t>
+          <t>R$ 147.50</t>
         </is>
       </c>
     </row>
@@ -12783,7 +12783,7 @@
       </c>
       <c r="C726" s="2" t="inlineStr">
         <is>
-          <t>R$ 147.16</t>
+          <t>R$ 147.25</t>
         </is>
       </c>
     </row>
@@ -12800,7 +12800,7 @@
       </c>
       <c r="C727" s="2" t="inlineStr">
         <is>
-          <t>R$ 147.04</t>
+          <t>R$ 147.13</t>
         </is>
       </c>
     </row>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="C728" s="2" t="inlineStr">
         <is>
-          <t>R$ 146.16</t>
+          <t>R$ 146.25</t>
         </is>
       </c>
     </row>
@@ -12834,7 +12834,7 @@
       </c>
       <c r="C729" s="2" t="inlineStr">
         <is>
-          <t>R$ 145.98</t>
+          <t>R$ 146.07</t>
         </is>
       </c>
     </row>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="C730" s="2" t="inlineStr">
         <is>
-          <t>R$ 145.79</t>
+          <t>R$ 145.88</t>
         </is>
       </c>
     </row>
@@ -12868,7 +12868,7 @@
       </c>
       <c r="C731" s="2" t="inlineStr">
         <is>
-          <t>R$ 145.48</t>
+          <t>R$ 145.57</t>
         </is>
       </c>
     </row>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="C732" s="2" t="inlineStr">
         <is>
-          <t>R$ 144.79</t>
+          <t>R$ 144.88</t>
         </is>
       </c>
     </row>
@@ -12902,7 +12902,7 @@
       </c>
       <c r="C733" s="2" t="inlineStr">
         <is>
-          <t>R$ 144.79</t>
+          <t>R$ 144.88</t>
         </is>
       </c>
     </row>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="C734" s="2" t="inlineStr">
         <is>
-          <t>R$ 144.42</t>
+          <t>R$ 144.51</t>
         </is>
       </c>
     </row>
@@ -12936,7 +12936,7 @@
       </c>
       <c r="C735" s="2" t="inlineStr">
         <is>
-          <t>R$ 144.17</t>
+          <t>R$ 144.26</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="C736" s="2" t="inlineStr">
         <is>
-          <t>R$ 143.79</t>
+          <t>R$ 143.88</t>
         </is>
       </c>
     </row>
@@ -12970,7 +12970,7 @@
       </c>
       <c r="C737" s="2" t="inlineStr">
         <is>
-          <t>R$ 143.23</t>
+          <t>R$ 143.32</t>
         </is>
       </c>
     </row>
@@ -12987,7 +12987,7 @@
       </c>
       <c r="C738" s="2" t="inlineStr">
         <is>
-          <t>R$ 142.55</t>
+          <t>R$ 142.63</t>
         </is>
       </c>
     </row>
@@ -13004,7 +13004,7 @@
       </c>
       <c r="C739" s="2" t="inlineStr">
         <is>
-          <t>R$ 141.30</t>
+          <t>R$ 141.39</t>
         </is>
       </c>
     </row>
@@ -13021,7 +13021,7 @@
       </c>
       <c r="C740" s="2" t="inlineStr">
         <is>
-          <t>R$ 140.99</t>
+          <t>R$ 141.07</t>
         </is>
       </c>
     </row>
@@ -13038,7 +13038,7 @@
       </c>
       <c r="C741" s="2" t="inlineStr">
         <is>
-          <t>R$ 140.61</t>
+          <t>R$ 140.70</t>
         </is>
       </c>
     </row>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="C742" s="2" t="inlineStr">
         <is>
-          <t>R$ 140.36</t>
+          <t>R$ 140.45</t>
         </is>
       </c>
     </row>
@@ -13072,7 +13072,7 @@
       </c>
       <c r="C743" s="2" t="inlineStr">
         <is>
-          <t>R$ 139.55</t>
+          <t>R$ 139.64</t>
         </is>
       </c>
     </row>
@@ -13089,7 +13089,7 @@
       </c>
       <c r="C744" s="2" t="inlineStr">
         <is>
-          <t>R$ 138.49</t>
+          <t>R$ 138.58</t>
         </is>
       </c>
     </row>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="C745" s="2" t="inlineStr">
         <is>
-          <t>R$ 138.24</t>
+          <t>R$ 138.33</t>
         </is>
       </c>
     </row>
@@ -13123,7 +13123,7 @@
       </c>
       <c r="C746" s="2" t="inlineStr">
         <is>
-          <t>R$ 138.12</t>
+          <t>R$ 138.20</t>
         </is>
       </c>
     </row>
@@ -13140,7 +13140,7 @@
       </c>
       <c r="C747" s="2" t="inlineStr">
         <is>
-          <t>R$ 138.12</t>
+          <t>R$ 138.20</t>
         </is>
       </c>
     </row>
@@ -13157,7 +13157,7 @@
       </c>
       <c r="C748" s="2" t="inlineStr">
         <is>
-          <t>R$ 138.05</t>
+          <t>R$ 138.14</t>
         </is>
       </c>
     </row>
@@ -13174,7 +13174,7 @@
       </c>
       <c r="C749" s="2" t="inlineStr">
         <is>
-          <t>R$ 138.05</t>
+          <t>R$ 138.14</t>
         </is>
       </c>
     </row>
@@ -13191,7 +13191,7 @@
       </c>
       <c r="C750" s="2" t="inlineStr">
         <is>
-          <t>R$ 137.93</t>
+          <t>R$ 138.02</t>
         </is>
       </c>
     </row>
@@ -13208,7 +13208,7 @@
       </c>
       <c r="C751" s="2" t="inlineStr">
         <is>
-          <t>R$ 137.93</t>
+          <t>R$ 138.02</t>
         </is>
       </c>
     </row>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="C752" s="2" t="inlineStr">
         <is>
-          <t>R$ 137.87</t>
+          <t>R$ 137.95</t>
         </is>
       </c>
     </row>
@@ -13242,7 +13242,7 @@
       </c>
       <c r="C753" s="2" t="inlineStr">
         <is>
-          <t>R$ 137.74</t>
+          <t>R$ 137.83</t>
         </is>
       </c>
     </row>
@@ -13259,7 +13259,7 @@
       </c>
       <c r="C754" s="2" t="inlineStr">
         <is>
-          <t>R$ 137.62</t>
+          <t>R$ 137.70</t>
         </is>
       </c>
     </row>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="C755" s="2" t="inlineStr">
         <is>
-          <t>R$ 137.24</t>
+          <t>R$ 137.33</t>
         </is>
       </c>
     </row>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="C756" s="2" t="inlineStr">
         <is>
-          <t>R$ 136.99</t>
+          <t>R$ 137.08</t>
         </is>
       </c>
     </row>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="C757" s="2" t="inlineStr">
         <is>
-          <t>R$ 136.99</t>
+          <t>R$ 137.08</t>
         </is>
       </c>
     </row>
@@ -13327,7 +13327,7 @@
       </c>
       <c r="C758" s="2" t="inlineStr">
         <is>
-          <t>R$ 136.93</t>
+          <t>R$ 137.02</t>
         </is>
       </c>
     </row>
@@ -13344,7 +13344,7 @@
       </c>
       <c r="C759" s="2" t="inlineStr">
         <is>
-          <t>R$ 136.87</t>
+          <t>R$ 136.95</t>
         </is>
       </c>
     </row>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="C760" s="2" t="inlineStr">
         <is>
-          <t>R$ 136.43</t>
+          <t>R$ 136.52</t>
         </is>
       </c>
     </row>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="C761" s="2" t="inlineStr">
         <is>
-          <t>R$ 136.12</t>
+          <t>R$ 136.20</t>
         </is>
       </c>
     </row>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="C762" s="2" t="inlineStr">
         <is>
-          <t>R$ 135.99</t>
+          <t>R$ 136.08</t>
         </is>
       </c>
     </row>
@@ -13412,7 +13412,7 @@
       </c>
       <c r="C763" s="2" t="inlineStr">
         <is>
-          <t>R$ 135.99</t>
+          <t>R$ 136.08</t>
         </is>
       </c>
     </row>
@@ -13429,7 +13429,7 @@
       </c>
       <c r="C764" s="2" t="inlineStr">
         <is>
-          <t>R$ 135.62</t>
+          <t>R$ 135.71</t>
         </is>
       </c>
     </row>
@@ -13446,7 +13446,7 @@
       </c>
       <c r="C765" s="2" t="inlineStr">
         <is>
-          <t>R$ 135.50</t>
+          <t>R$ 135.58</t>
         </is>
       </c>
     </row>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="C766" s="2" t="inlineStr">
         <is>
-          <t>R$ 135.43</t>
+          <t>R$ 135.52</t>
         </is>
       </c>
     </row>
@@ -13480,7 +13480,7 @@
       </c>
       <c r="C767" s="2" t="inlineStr">
         <is>
-          <t>R$ 134.68</t>
+          <t>R$ 134.77</t>
         </is>
       </c>
     </row>
@@ -13497,7 +13497,7 @@
       </c>
       <c r="C768" s="2" t="inlineStr">
         <is>
-          <t>R$ 134.56</t>
+          <t>R$ 134.64</t>
         </is>
       </c>
     </row>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="C769" s="2" t="inlineStr">
         <is>
-          <t>R$ 134.44</t>
+          <t>R$ 134.52</t>
         </is>
       </c>
     </row>
@@ -13531,7 +13531,7 @@
       </c>
       <c r="C770" s="2" t="inlineStr">
         <is>
-          <t>R$ 133.25</t>
+          <t>R$ 133.33</t>
         </is>
       </c>
     </row>
@@ -13548,7 +13548,7 @@
       </c>
       <c r="C771" s="2" t="inlineStr">
         <is>
-          <t>R$ 133.25</t>
+          <t>R$ 133.33</t>
         </is>
       </c>
     </row>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="C772" s="2" t="inlineStr">
         <is>
-          <t>R$ 132.88</t>
+          <t>R$ 132.96</t>
         </is>
       </c>
     </row>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="C773" s="2" t="inlineStr">
         <is>
-          <t>R$ 132.75</t>
+          <t>R$ 132.83</t>
         </is>
       </c>
     </row>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="C774" s="2" t="inlineStr">
         <is>
-          <t>R$ 132.31</t>
+          <t>R$ 132.40</t>
         </is>
       </c>
     </row>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="C775" s="2" t="inlineStr">
         <is>
-          <t>R$ 131.94</t>
+          <t>R$ 132.02</t>
         </is>
       </c>
     </row>
@@ -13633,7 +13633,7 @@
       </c>
       <c r="C776" s="2" t="inlineStr">
         <is>
-          <t>R$ 131.88</t>
+          <t>R$ 131.96</t>
         </is>
       </c>
     </row>
@@ -13650,7 +13650,7 @@
       </c>
       <c r="C777" s="2" t="inlineStr">
         <is>
-          <t>R$ 131.75</t>
+          <t>R$ 131.84</t>
         </is>
       </c>
     </row>
@@ -13667,7 +13667,7 @@
       </c>
       <c r="C778" s="2" t="inlineStr">
         <is>
-          <t>R$ 131.44</t>
+          <t>R$ 131.52</t>
         </is>
       </c>
     </row>
@@ -13684,7 +13684,7 @@
       </c>
       <c r="C779" s="2" t="inlineStr">
         <is>
-          <t>R$ 131.25</t>
+          <t>R$ 131.34</t>
         </is>
       </c>
     </row>
@@ -13701,7 +13701,7 @@
       </c>
       <c r="C780" s="2" t="inlineStr">
         <is>
-          <t>R$ 131.00</t>
+          <t>R$ 131.09</t>
         </is>
       </c>
     </row>
@@ -13718,7 +13718,7 @@
       </c>
       <c r="C781" s="2" t="inlineStr">
         <is>
-          <t>R$ 130.75</t>
+          <t>R$ 130.84</t>
         </is>
       </c>
     </row>
@@ -13735,7 +13735,7 @@
       </c>
       <c r="C782" s="2" t="inlineStr">
         <is>
-          <t>R$ 130.57</t>
+          <t>R$ 130.65</t>
         </is>
       </c>
     </row>
@@ -13752,7 +13752,7 @@
       </c>
       <c r="C783" s="2" t="inlineStr">
         <is>
-          <t>R$ 130.44</t>
+          <t>R$ 130.52</t>
         </is>
       </c>
     </row>
@@ -13769,7 +13769,7 @@
       </c>
       <c r="C784" s="2" t="inlineStr">
         <is>
-          <t>R$ 130.38</t>
+          <t>R$ 130.46</t>
         </is>
       </c>
     </row>
@@ -13786,7 +13786,7 @@
       </c>
       <c r="C785" s="2" t="inlineStr">
         <is>
-          <t>R$ 130.38</t>
+          <t>R$ 130.46</t>
         </is>
       </c>
     </row>
@@ -13803,7 +13803,7 @@
       </c>
       <c r="C786" s="2" t="inlineStr">
         <is>
-          <t>R$ 130.32</t>
+          <t>R$ 130.40</t>
         </is>
       </c>
     </row>
@@ -13820,7 +13820,7 @@
       </c>
       <c r="C787" s="2" t="inlineStr">
         <is>
-          <t>R$ 130.26</t>
+          <t>R$ 130.34</t>
         </is>
       </c>
     </row>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="C788" s="2" t="inlineStr">
         <is>
-          <t>R$ 129.69</t>
+          <t>R$ 129.78</t>
         </is>
       </c>
     </row>
@@ -13854,7 +13854,7 @@
       </c>
       <c r="C789" s="2" t="inlineStr">
         <is>
-          <t>R$ 129.44</t>
+          <t>R$ 129.53</t>
         </is>
       </c>
     </row>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="C790" s="2" t="inlineStr">
         <is>
-          <t>R$ 128.88</t>
+          <t>R$ 128.96</t>
         </is>
       </c>
     </row>
@@ -13888,7 +13888,7 @@
       </c>
       <c r="C791" s="2" t="inlineStr">
         <is>
-          <t>R$ 128.45</t>
+          <t>R$ 128.53</t>
         </is>
       </c>
     </row>
@@ -13905,7 +13905,7 @@
       </c>
       <c r="C792" s="2" t="inlineStr">
         <is>
-          <t>R$ 128.20</t>
+          <t>R$ 128.28</t>
         </is>
       </c>
     </row>
@@ -13922,7 +13922,7 @@
       </c>
       <c r="C793" s="2" t="inlineStr">
         <is>
-          <t>R$ 127.89</t>
+          <t>R$ 127.97</t>
         </is>
       </c>
     </row>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="C794" s="2" t="inlineStr">
         <is>
-          <t>R$ 127.70</t>
+          <t>R$ 127.78</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="C795" s="2" t="inlineStr">
         <is>
-          <t>R$ 127.64</t>
+          <t>R$ 127.72</t>
         </is>
       </c>
     </row>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="C796" s="2" t="inlineStr">
         <is>
-          <t>R$ 127.51</t>
+          <t>R$ 127.59</t>
         </is>
       </c>
     </row>
@@ -13990,7 +13990,7 @@
       </c>
       <c r="C797" s="2" t="inlineStr">
         <is>
-          <t>R$ 126.64</t>
+          <t>R$ 126.72</t>
         </is>
       </c>
     </row>
@@ -14007,7 +14007,7 @@
       </c>
       <c r="C798" s="2" t="inlineStr">
         <is>
-          <t>R$ 126.58</t>
+          <t>R$ 126.65</t>
         </is>
       </c>
     </row>
@@ -14024,7 +14024,7 @@
       </c>
       <c r="C799" s="2" t="inlineStr">
         <is>
-          <t>R$ 126.45</t>
+          <t>R$ 126.53</t>
         </is>
       </c>
     </row>
@@ -14041,7 +14041,7 @@
       </c>
       <c r="C800" s="2" t="inlineStr">
         <is>
-          <t>R$ 126.14</t>
+          <t>R$ 126.22</t>
         </is>
       </c>
     </row>
@@ -14058,7 +14058,7 @@
       </c>
       <c r="C801" s="2" t="inlineStr">
         <is>
-          <t>R$ 125.51</t>
+          <t>R$ 125.59</t>
         </is>
       </c>
     </row>
@@ -14075,7 +14075,7 @@
       </c>
       <c r="C802" s="2" t="inlineStr">
         <is>
-          <t>R$ 125.45</t>
+          <t>R$ 125.53</t>
         </is>
       </c>
     </row>
@@ -14092,7 +14092,7 @@
       </c>
       <c r="C803" s="2" t="inlineStr">
         <is>
-          <t>R$ 125.39</t>
+          <t>R$ 125.47</t>
         </is>
       </c>
     </row>
@@ -14109,7 +14109,7 @@
       </c>
       <c r="C804" s="2" t="inlineStr">
         <is>
-          <t>R$ 124.89</t>
+          <t>R$ 124.97</t>
         </is>
       </c>
     </row>
@@ -14126,7 +14126,7 @@
       </c>
       <c r="C805" s="2" t="inlineStr">
         <is>
-          <t>R$ 124.89</t>
+          <t>R$ 124.97</t>
         </is>
       </c>
     </row>
@@ -14143,7 +14143,7 @@
       </c>
       <c r="C806" s="2" t="inlineStr">
         <is>
-          <t>R$ 124.27</t>
+          <t>R$ 124.34</t>
         </is>
       </c>
     </row>
@@ -14160,7 +14160,7 @@
       </c>
       <c r="C807" s="2" t="inlineStr">
         <is>
-          <t>R$ 123.71</t>
+          <t>R$ 123.78</t>
         </is>
       </c>
     </row>
@@ -14177,7 +14177,7 @@
       </c>
       <c r="C808" s="2" t="inlineStr">
         <is>
-          <t>R$ 123.08</t>
+          <t>R$ 123.16</t>
         </is>
       </c>
     </row>
@@ -14194,7 +14194,7 @@
       </c>
       <c r="C809" s="2" t="inlineStr">
         <is>
-          <t>R$ 122.83</t>
+          <t>R$ 122.91</t>
         </is>
       </c>
     </row>
@@ -14211,7 +14211,7 @@
       </c>
       <c r="C810" s="2" t="inlineStr">
         <is>
-          <t>R$ 122.83</t>
+          <t>R$ 122.91</t>
         </is>
       </c>
     </row>
@@ -14228,7 +14228,7 @@
       </c>
       <c r="C811" s="2" t="inlineStr">
         <is>
-          <t>R$ 122.71</t>
+          <t>R$ 122.78</t>
         </is>
       </c>
     </row>
@@ -14245,7 +14245,7 @@
       </c>
       <c r="C812" s="2" t="inlineStr">
         <is>
-          <t>R$ 122.46</t>
+          <t>R$ 122.53</t>
         </is>
       </c>
     </row>
@@ -14262,7 +14262,7 @@
       </c>
       <c r="C813" s="2" t="inlineStr">
         <is>
-          <t>R$ 122.27</t>
+          <t>R$ 122.35</t>
         </is>
       </c>
     </row>
@@ -14279,7 +14279,7 @@
       </c>
       <c r="C814" s="2" t="inlineStr">
         <is>
-          <t>R$ 122.08</t>
+          <t>R$ 122.16</t>
         </is>
       </c>
     </row>
@@ -14296,7 +14296,7 @@
       </c>
       <c r="C815" s="2" t="inlineStr">
         <is>
-          <t>R$ 121.96</t>
+          <t>R$ 122.04</t>
         </is>
       </c>
     </row>
@@ -14313,7 +14313,7 @@
       </c>
       <c r="C816" s="2" t="inlineStr">
         <is>
-          <t>R$ 121.83</t>
+          <t>R$ 121.91</t>
         </is>
       </c>
     </row>
@@ -14330,7 +14330,7 @@
       </c>
       <c r="C817" s="2" t="inlineStr">
         <is>
-          <t>R$ 121.58</t>
+          <t>R$ 121.66</t>
         </is>
       </c>
     </row>
@@ -14347,7 +14347,7 @@
       </c>
       <c r="C818" s="2" t="inlineStr">
         <is>
-          <t>R$ 121.21</t>
+          <t>R$ 121.29</t>
         </is>
       </c>
     </row>
@@ -14364,7 +14364,7 @@
       </c>
       <c r="C819" s="2" t="inlineStr">
         <is>
-          <t>R$ 120.21</t>
+          <t>R$ 120.29</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="C820" s="2" t="inlineStr">
         <is>
-          <t>R$ 119.90</t>
+          <t>R$ 119.98</t>
         </is>
       </c>
     </row>
@@ -14398,7 +14398,7 @@
       </c>
       <c r="C821" s="2" t="inlineStr">
         <is>
-          <t>R$ 119.84</t>
+          <t>R$ 119.91</t>
         </is>
       </c>
     </row>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="C822" s="2" t="inlineStr">
         <is>
-          <t>R$ 119.71</t>
+          <t>R$ 119.79</t>
         </is>
       </c>
     </row>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="C823" s="2" t="inlineStr">
         <is>
-          <t>R$ 119.65</t>
+          <t>R$ 119.73</t>
         </is>
       </c>
     </row>
@@ -14449,7 +14449,7 @@
       </c>
       <c r="C824" s="2" t="inlineStr">
         <is>
-          <t>R$ 119.46</t>
+          <t>R$ 119.54</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14466,7 @@
       </c>
       <c r="C825" s="2" t="inlineStr">
         <is>
-          <t>R$ 119.09</t>
+          <t>R$ 119.16</t>
         </is>
       </c>
     </row>
@@ -14483,7 +14483,7 @@
       </c>
       <c r="C826" s="2" t="inlineStr">
         <is>
-          <t>R$ 118.96</t>
+          <t>R$ 119.04</t>
         </is>
       </c>
     </row>
@@ -14500,7 +14500,7 @@
       </c>
       <c r="C827" s="2" t="inlineStr">
         <is>
-          <t>R$ 118.65</t>
+          <t>R$ 118.73</t>
         </is>
       </c>
     </row>
@@ -14517,7 +14517,7 @@
       </c>
       <c r="C828" s="2" t="inlineStr">
         <is>
-          <t>R$ 118.34</t>
+          <t>R$ 118.41</t>
         </is>
       </c>
     </row>
@@ -14534,7 +14534,7 @@
       </c>
       <c r="C829" s="2" t="inlineStr">
         <is>
-          <t>R$ 117.78</t>
+          <t>R$ 117.85</t>
         </is>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="C830" s="2" t="inlineStr">
         <is>
-          <t>R$ 117.16</t>
+          <t>R$ 117.23</t>
         </is>
       </c>
     </row>
@@ -14568,7 +14568,7 @@
       </c>
       <c r="C831" s="2" t="inlineStr">
         <is>
-          <t>R$ 117.09</t>
+          <t>R$ 117.17</t>
         </is>
       </c>
     </row>
@@ -14585,7 +14585,7 @@
       </c>
       <c r="C832" s="2" t="inlineStr">
         <is>
-          <t>R$ 116.91</t>
+          <t>R$ 116.98</t>
         </is>
       </c>
     </row>
@@ -14602,7 +14602,7 @@
       </c>
       <c r="C833" s="2" t="inlineStr">
         <is>
-          <t>R$ 115.47</t>
+          <t>R$ 115.54</t>
         </is>
       </c>
     </row>
@@ -14619,7 +14619,7 @@
       </c>
       <c r="C834" s="2" t="inlineStr">
         <is>
-          <t>R$ 115.16</t>
+          <t>R$ 115.23</t>
         </is>
       </c>
     </row>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="C835" s="2" t="inlineStr">
         <is>
-          <t>R$ 114.29</t>
+          <t>R$ 114.36</t>
         </is>
       </c>
     </row>
@@ -14653,7 +14653,7 @@
       </c>
       <c r="C836" s="2" t="inlineStr">
         <is>
-          <t>R$ 114.04</t>
+          <t>R$ 114.11</t>
         </is>
       </c>
     </row>
@@ -14670,7 +14670,7 @@
       </c>
       <c r="C837" s="2" t="inlineStr">
         <is>
-          <t>R$ 113.10</t>
+          <t>R$ 113.17</t>
         </is>
       </c>
     </row>
@@ -14687,7 +14687,7 @@
       </c>
       <c r="C838" s="2" t="inlineStr">
         <is>
-          <t>R$ 112.48</t>
+          <t>R$ 112.55</t>
         </is>
       </c>
     </row>
@@ -14704,7 +14704,7 @@
       </c>
       <c r="C839" s="2" t="inlineStr">
         <is>
-          <t>R$ 112.41</t>
+          <t>R$ 112.48</t>
         </is>
       </c>
     </row>
@@ -14721,7 +14721,7 @@
       </c>
       <c r="C840" s="2" t="inlineStr">
         <is>
-          <t>R$ 112.10</t>
+          <t>R$ 112.17</t>
         </is>
       </c>
     </row>
@@ -14738,7 +14738,7 @@
       </c>
       <c r="C841" s="2" t="inlineStr">
         <is>
-          <t>R$ 111.85</t>
+          <t>R$ 111.92</t>
         </is>
       </c>
     </row>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="C842" s="2" t="inlineStr">
         <is>
-          <t>R$ 111.10</t>
+          <t>R$ 111.17</t>
         </is>
       </c>
     </row>
@@ -14772,7 +14772,7 @@
       </c>
       <c r="C843" s="2" t="inlineStr">
         <is>
-          <t>R$ 111.04</t>
+          <t>R$ 111.11</t>
         </is>
       </c>
     </row>
@@ -14789,7 +14789,7 @@
       </c>
       <c r="C844" s="2" t="inlineStr">
         <is>
-          <t>R$ 110.79</t>
+          <t>R$ 110.86</t>
         </is>
       </c>
     </row>
@@ -14806,7 +14806,7 @@
       </c>
       <c r="C845" s="2" t="inlineStr">
         <is>
-          <t>R$ 110.61</t>
+          <t>R$ 110.67</t>
         </is>
       </c>
     </row>
@@ -14823,7 +14823,7 @@
       </c>
       <c r="C846" s="2" t="inlineStr">
         <is>
-          <t>R$ 110.17</t>
+          <t>R$ 110.24</t>
         </is>
       </c>
     </row>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="C847" s="2" t="inlineStr">
         <is>
-          <t>R$ 109.11</t>
+          <t>R$ 109.18</t>
         </is>
       </c>
     </row>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="C848" s="2" t="inlineStr">
         <is>
-          <t>R$ 108.92</t>
+          <t>R$ 108.99</t>
         </is>
       </c>
     </row>
@@ -14874,7 +14874,7 @@
       </c>
       <c r="C849" s="2" t="inlineStr">
         <is>
-          <t>R$ 108.80</t>
+          <t>R$ 108.86</t>
         </is>
       </c>
     </row>
@@ -14891,7 +14891,7 @@
       </c>
       <c r="C850" s="2" t="inlineStr">
         <is>
-          <t>R$ 108.73</t>
+          <t>R$ 108.80</t>
         </is>
       </c>
     </row>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="C851" s="2" t="inlineStr">
         <is>
-          <t>R$ 107.80</t>
+          <t>R$ 107.87</t>
         </is>
       </c>
     </row>
@@ -14925,7 +14925,7 @@
       </c>
       <c r="C852" s="2" t="inlineStr">
         <is>
-          <t>R$ 107.74</t>
+          <t>R$ 107.80</t>
         </is>
       </c>
     </row>
@@ -14942,7 +14942,7 @@
       </c>
       <c r="C853" s="2" t="inlineStr">
         <is>
-          <t>R$ 107.55</t>
+          <t>R$ 107.62</t>
         </is>
       </c>
     </row>
@@ -14959,7 +14959,7 @@
       </c>
       <c r="C854" s="2" t="inlineStr">
         <is>
-          <t>R$ 107.36</t>
+          <t>R$ 107.43</t>
         </is>
       </c>
     </row>
@@ -14976,7 +14976,7 @@
       </c>
       <c r="C855" s="2" t="inlineStr">
         <is>
-          <t>R$ 106.55</t>
+          <t>R$ 106.62</t>
         </is>
       </c>
     </row>
@@ -14993,7 +14993,7 @@
       </c>
       <c r="C856" s="2" t="inlineStr">
         <is>
-          <t>R$ 106.24</t>
+          <t>R$ 106.30</t>
         </is>
       </c>
     </row>
@@ -15010,7 +15010,7 @@
       </c>
       <c r="C857" s="2" t="inlineStr">
         <is>
-          <t>R$ 105.86</t>
+          <t>R$ 105.93</t>
         </is>
       </c>
     </row>
@@ -15027,7 +15027,7 @@
       </c>
       <c r="C858" s="2" t="inlineStr">
         <is>
-          <t>R$ 105.80</t>
+          <t>R$ 105.87</t>
         </is>
       </c>
     </row>
@@ -15044,7 +15044,7 @@
       </c>
       <c r="C859" s="2" t="inlineStr">
         <is>
-          <t>R$ 105.36</t>
+          <t>R$ 105.43</t>
         </is>
       </c>
     </row>
@@ -15061,7 +15061,7 @@
       </c>
       <c r="C860" s="2" t="inlineStr">
         <is>
-          <t>R$ 105.30</t>
+          <t>R$ 105.37</t>
         </is>
       </c>
     </row>
@@ -15078,7 +15078,7 @@
       </c>
       <c r="C861" s="2" t="inlineStr">
         <is>
-          <t>R$ 105.12</t>
+          <t>R$ 105.18</t>
         </is>
       </c>
     </row>
@@ -15095,7 +15095,7 @@
       </c>
       <c r="C862" s="2" t="inlineStr">
         <is>
-          <t>R$ 104.87</t>
+          <t>R$ 104.93</t>
         </is>
       </c>
     </row>
@@ -15112,7 +15112,7 @@
       </c>
       <c r="C863" s="2" t="inlineStr">
         <is>
-          <t>R$ 104.68</t>
+          <t>R$ 104.74</t>
         </is>
       </c>
     </row>
@@ -15129,7 +15129,7 @@
       </c>
       <c r="C864" s="2" t="inlineStr">
         <is>
-          <t>R$ 104.62</t>
+          <t>R$ 104.68</t>
         </is>
       </c>
     </row>
@@ -15146,7 +15146,7 @@
       </c>
       <c r="C865" s="2" t="inlineStr">
         <is>
-          <t>R$ 104.37</t>
+          <t>R$ 104.43</t>
         </is>
       </c>
     </row>
@@ -15163,7 +15163,7 @@
       </c>
       <c r="C866" s="2" t="inlineStr">
         <is>
-          <t>R$ 104.05</t>
+          <t>R$ 104.12</t>
         </is>
       </c>
     </row>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="C867" s="2" t="inlineStr">
         <is>
-          <t>R$ 103.81</t>
+          <t>R$ 103.87</t>
         </is>
       </c>
     </row>
@@ -15197,7 +15197,7 @@
       </c>
       <c r="C868" s="2" t="inlineStr">
         <is>
-          <t>R$ 103.68</t>
+          <t>R$ 103.75</t>
         </is>
       </c>
     </row>
@@ -15214,7 +15214,7 @@
       </c>
       <c r="C869" s="2" t="inlineStr">
         <is>
-          <t>R$ 101.93</t>
+          <t>R$ 102.00</t>
         </is>
       </c>
     </row>
@@ -15231,7 +15231,7 @@
       </c>
       <c r="C870" s="2" t="inlineStr">
         <is>
-          <t>R$ 101.87</t>
+          <t>R$ 101.94</t>
         </is>
       </c>
     </row>
@@ -15248,7 +15248,7 @@
       </c>
       <c r="C871" s="2" t="inlineStr">
         <is>
-          <t>R$ 101.56</t>
+          <t>R$ 101.62</t>
         </is>
       </c>
     </row>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="C872" s="2" t="inlineStr">
         <is>
-          <t>R$ 101.56</t>
+          <t>R$ 101.62</t>
         </is>
       </c>
     </row>
@@ -15282,7 +15282,7 @@
       </c>
       <c r="C873" s="2" t="inlineStr">
         <is>
-          <t>R$ 101.56</t>
+          <t>R$ 101.62</t>
         </is>
       </c>
     </row>
@@ -15299,7 +15299,7 @@
       </c>
       <c r="C874" s="2" t="inlineStr">
         <is>
-          <t>R$ 101.43</t>
+          <t>R$ 101.50</t>
         </is>
       </c>
     </row>
@@ -15316,7 +15316,7 @@
       </c>
       <c r="C875" s="2" t="inlineStr">
         <is>
-          <t>R$ 101.31</t>
+          <t>R$ 101.37</t>
         </is>
       </c>
     </row>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="C876" s="2" t="inlineStr">
         <is>
-          <t>R$ 101.31</t>
+          <t>R$ 101.37</t>
         </is>
       </c>
     </row>
@@ -15350,7 +15350,7 @@
       </c>
       <c r="C877" s="2" t="inlineStr">
         <is>
-          <t>R$ 101.25</t>
+          <t>R$ 101.31</t>
         </is>
       </c>
     </row>
@@ -15367,7 +15367,7 @@
       </c>
       <c r="C878" s="2" t="inlineStr">
         <is>
-          <t>R$ 100.81</t>
+          <t>R$ 100.87</t>
         </is>
       </c>
     </row>
@@ -15384,7 +15384,7 @@
       </c>
       <c r="C879" s="2" t="inlineStr">
         <is>
-          <t>R$ 99.63</t>
+          <t>R$ 99.69</t>
         </is>
       </c>
     </row>
@@ -15401,7 +15401,7 @@
       </c>
       <c r="C880" s="2" t="inlineStr">
         <is>
-          <t>R$ 99.44</t>
+          <t>R$ 99.50</t>
         </is>
       </c>
     </row>
@@ -15418,7 +15418,7 @@
       </c>
       <c r="C881" s="2" t="inlineStr">
         <is>
-          <t>R$ 98.88</t>
+          <t>R$ 98.94</t>
         </is>
       </c>
     </row>
@@ -15435,7 +15435,7 @@
       </c>
       <c r="C882" s="2" t="inlineStr">
         <is>
-          <t>R$ 98.50</t>
+          <t>R$ 98.56</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="C883" s="2" t="inlineStr">
         <is>
-          <t>R$ 98.38</t>
+          <t>R$ 98.44</t>
         </is>
       </c>
     </row>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="C884" s="2" t="inlineStr">
         <is>
-          <t>R$ 98.38</t>
+          <t>R$ 98.44</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15486,7 @@
       </c>
       <c r="C885" s="2" t="inlineStr">
         <is>
-          <t>R$ 98.00</t>
+          <t>R$ 98.06</t>
         </is>
       </c>
     </row>
@@ -15503,7 +15503,7 @@
       </c>
       <c r="C886" s="2" t="inlineStr">
         <is>
-          <t>R$ 96.82</t>
+          <t>R$ 96.88</t>
         </is>
       </c>
     </row>
@@ -15520,7 +15520,7 @@
       </c>
       <c r="C887" s="2" t="inlineStr">
         <is>
-          <t>R$ 96.57</t>
+          <t>R$ 96.63</t>
         </is>
       </c>
     </row>
@@ -15537,7 +15537,7 @@
       </c>
       <c r="C888" s="2" t="inlineStr">
         <is>
-          <t>R$ 96.32</t>
+          <t>R$ 96.38</t>
         </is>
       </c>
     </row>
@@ -15554,7 +15554,7 @@
       </c>
       <c r="C889" s="2" t="inlineStr">
         <is>
-          <t>R$ 96.19</t>
+          <t>R$ 96.25</t>
         </is>
       </c>
     </row>
@@ -15571,7 +15571,7 @@
       </c>
       <c r="C890" s="2" t="inlineStr">
         <is>
-          <t>R$ 96.07</t>
+          <t>R$ 96.13</t>
         </is>
       </c>
     </row>
@@ -15588,7 +15588,7 @@
       </c>
       <c r="C891" s="2" t="inlineStr">
         <is>
-          <t>R$ 95.95</t>
+          <t>R$ 96.01</t>
         </is>
       </c>
     </row>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="C892" s="2" t="inlineStr">
         <is>
-          <t>R$ 95.82</t>
+          <t>R$ 95.88</t>
         </is>
       </c>
     </row>
@@ -15622,7 +15622,7 @@
       </c>
       <c r="C893" s="2" t="inlineStr">
         <is>
-          <t>R$ 95.32</t>
+          <t>R$ 95.38</t>
         </is>
       </c>
     </row>
@@ -15639,7 +15639,7 @@
       </c>
       <c r="C894" s="2" t="inlineStr">
         <is>
-          <t>R$ 94.07</t>
+          <t>R$ 94.13</t>
         </is>
       </c>
     </row>
@@ -15656,7 +15656,7 @@
       </c>
       <c r="C895" s="2" t="inlineStr">
         <is>
-          <t>R$ 93.95</t>
+          <t>R$ 94.01</t>
         </is>
       </c>
     </row>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="C896" s="2" t="inlineStr">
         <is>
-          <t>R$ 92.70</t>
+          <t>R$ 92.76</t>
         </is>
       </c>
     </row>
@@ -15690,7 +15690,7 @@
       </c>
       <c r="C897" s="2" t="inlineStr">
         <is>
-          <t>R$ 92.45</t>
+          <t>R$ 92.51</t>
         </is>
       </c>
     </row>
@@ -15707,7 +15707,7 @@
       </c>
       <c r="C898" s="2" t="inlineStr">
         <is>
-          <t>R$ 92.08</t>
+          <t>R$ 92.13</t>
         </is>
       </c>
     </row>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="C899" s="2" t="inlineStr">
         <is>
-          <t>R$ 92.01</t>
+          <t>R$ 92.07</t>
         </is>
       </c>
     </row>
@@ -15741,7 +15741,7 @@
       </c>
       <c r="C900" s="2" t="inlineStr">
         <is>
-          <t>R$ 92.01</t>
+          <t>R$ 92.07</t>
         </is>
       </c>
     </row>
@@ -15758,7 +15758,7 @@
       </c>
       <c r="C901" s="2" t="inlineStr">
         <is>
-          <t>R$ 91.95</t>
+          <t>R$ 92.01</t>
         </is>
       </c>
     </row>
@@ -15775,7 +15775,7 @@
       </c>
       <c r="C902" s="2" t="inlineStr">
         <is>
-          <t>R$ 91.33</t>
+          <t>R$ 91.39</t>
         </is>
       </c>
     </row>
@@ -15792,7 +15792,7 @@
       </c>
       <c r="C903" s="2" t="inlineStr">
         <is>
-          <t>R$ 90.95</t>
+          <t>R$ 91.01</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       </c>
       <c r="C904" s="2" t="inlineStr">
         <is>
-          <t>R$ 90.89</t>
+          <t>R$ 90.95</t>
         </is>
       </c>
     </row>
@@ -15826,7 +15826,7 @@
       </c>
       <c r="C905" s="2" t="inlineStr">
         <is>
-          <t>R$ 90.70</t>
+          <t>R$ 90.76</t>
         </is>
       </c>
     </row>
@@ -15843,7 +15843,7 @@
       </c>
       <c r="C906" s="2" t="inlineStr">
         <is>
-          <t>R$ 90.08</t>
+          <t>R$ 90.14</t>
         </is>
       </c>
     </row>
@@ -15860,7 +15860,7 @@
       </c>
       <c r="C907" s="2" t="inlineStr">
         <is>
-          <t>R$ 89.89</t>
+          <t>R$ 89.95</t>
         </is>
       </c>
     </row>
@@ -15877,7 +15877,7 @@
       </c>
       <c r="C908" s="2" t="inlineStr">
         <is>
-          <t>R$ 89.83</t>
+          <t>R$ 89.89</t>
         </is>
       </c>
     </row>
@@ -15894,7 +15894,7 @@
       </c>
       <c r="C909" s="2" t="inlineStr">
         <is>
-          <t>R$ 89.77</t>
+          <t>R$ 89.83</t>
         </is>
       </c>
     </row>
@@ -15911,7 +15911,7 @@
       </c>
       <c r="C910" s="2" t="inlineStr">
         <is>
-          <t>R$ 89.58</t>
+          <t>R$ 89.64</t>
         </is>
       </c>
     </row>
@@ -15928,7 +15928,7 @@
       </c>
       <c r="C911" s="2" t="inlineStr">
         <is>
-          <t>R$ 89.02</t>
+          <t>R$ 89.08</t>
         </is>
       </c>
     </row>
@@ -15945,7 +15945,7 @@
       </c>
       <c r="C912" s="2" t="inlineStr">
         <is>
-          <t>R$ 88.52</t>
+          <t>R$ 88.58</t>
         </is>
       </c>
     </row>
@@ -15962,7 +15962,7 @@
       </c>
       <c r="C913" s="2" t="inlineStr">
         <is>
-          <t>R$ 88.33</t>
+          <t>R$ 88.39</t>
         </is>
       </c>
     </row>
@@ -15979,7 +15979,7 @@
       </c>
       <c r="C914" s="2" t="inlineStr">
         <is>
-          <t>R$ 87.96</t>
+          <t>R$ 88.02</t>
         </is>
       </c>
     </row>
@@ -15996,7 +15996,7 @@
       </c>
       <c r="C915" s="2" t="inlineStr">
         <is>
-          <t>R$ 87.84</t>
+          <t>R$ 87.89</t>
         </is>
       </c>
     </row>
@@ -16013,7 +16013,7 @@
       </c>
       <c r="C916" s="2" t="inlineStr">
         <is>
-          <t>R$ 87.77</t>
+          <t>R$ 87.83</t>
         </is>
       </c>
     </row>
@@ -16030,7 +16030,7 @@
       </c>
       <c r="C917" s="2" t="inlineStr">
         <is>
-          <t>R$ 87.46</t>
+          <t>R$ 87.52</t>
         </is>
       </c>
     </row>
@@ -16047,7 +16047,7 @@
       </c>
       <c r="C918" s="2" t="inlineStr">
         <is>
-          <t>R$ 87.27</t>
+          <t>R$ 87.33</t>
         </is>
       </c>
     </row>
@@ -16064,7 +16064,7 @@
       </c>
       <c r="C919" s="2" t="inlineStr">
         <is>
-          <t>R$ 86.84</t>
+          <t>R$ 86.89</t>
         </is>
       </c>
     </row>
@@ -16081,7 +16081,7 @@
       </c>
       <c r="C920" s="2" t="inlineStr">
         <is>
-          <t>R$ 86.71</t>
+          <t>R$ 86.77</t>
         </is>
       </c>
     </row>
@@ -16098,7 +16098,7 @@
       </c>
       <c r="C921" s="2" t="inlineStr">
         <is>
-          <t>R$ 86.46</t>
+          <t>R$ 86.52</t>
         </is>
       </c>
     </row>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="C922" s="2" t="inlineStr">
         <is>
-          <t>R$ 86.21</t>
+          <t>R$ 86.27</t>
         </is>
       </c>
     </row>
@@ -16132,7 +16132,7 @@
       </c>
       <c r="C923" s="2" t="inlineStr">
         <is>
-          <t>R$ 85.84</t>
+          <t>R$ 85.89</t>
         </is>
       </c>
     </row>
@@ -16149,7 +16149,7 @@
       </c>
       <c r="C924" s="2" t="inlineStr">
         <is>
-          <t>R$ 85.65</t>
+          <t>R$ 85.71</t>
         </is>
       </c>
     </row>
@@ -16166,7 +16166,7 @@
       </c>
       <c r="C925" s="2" t="inlineStr">
         <is>
-          <t>R$ 85.53</t>
+          <t>R$ 85.58</t>
         </is>
       </c>
     </row>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="C926" s="2" t="inlineStr">
         <is>
-          <t>R$ 85.22</t>
+          <t>R$ 85.27</t>
         </is>
       </c>
     </row>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="C927" s="2" t="inlineStr">
         <is>
-          <t>R$ 84.90</t>
+          <t>R$ 84.96</t>
         </is>
       </c>
     </row>
@@ -16217,7 +16217,7 @@
       </c>
       <c r="C928" s="2" t="inlineStr">
         <is>
-          <t>R$ 84.28</t>
+          <t>R$ 84.33</t>
         </is>
       </c>
     </row>
@@ -16234,7 +16234,7 @@
       </c>
       <c r="C929" s="2" t="inlineStr">
         <is>
-          <t>R$ 84.03</t>
+          <t>R$ 84.08</t>
         </is>
       </c>
     </row>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="C930" s="2" t="inlineStr">
         <is>
-          <t>R$ 83.47</t>
+          <t>R$ 83.52</t>
         </is>
       </c>
     </row>
@@ -16268,7 +16268,7 @@
       </c>
       <c r="C931" s="2" t="inlineStr">
         <is>
-          <t>R$ 83.22</t>
+          <t>R$ 83.27</t>
         </is>
       </c>
     </row>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="C932" s="2" t="inlineStr">
         <is>
-          <t>R$ 83.22</t>
+          <t>R$ 83.27</t>
         </is>
       </c>
     </row>
@@ -16302,7 +16302,7 @@
       </c>
       <c r="C933" s="2" t="inlineStr">
         <is>
-          <t>R$ 83.16</t>
+          <t>R$ 83.21</t>
         </is>
       </c>
     </row>
@@ -16319,7 +16319,7 @@
       </c>
       <c r="C934" s="2" t="inlineStr">
         <is>
-          <t>R$ 83.16</t>
+          <t>R$ 83.21</t>
         </is>
       </c>
     </row>
@@ -16336,7 +16336,7 @@
       </c>
       <c r="C935" s="2" t="inlineStr">
         <is>
-          <t>R$ 82.47</t>
+          <t>R$ 82.52</t>
         </is>
       </c>
     </row>
@@ -16353,7 +16353,7 @@
       </c>
       <c r="C936" s="2" t="inlineStr">
         <is>
-          <t>R$ 82.35</t>
+          <t>R$ 82.40</t>
         </is>
       </c>
     </row>
@@ -16370,7 +16370,7 @@
       </c>
       <c r="C937" s="2" t="inlineStr">
         <is>
-          <t>R$ 81.85</t>
+          <t>R$ 81.90</t>
         </is>
       </c>
     </row>
@@ -16387,7 +16387,7 @@
       </c>
       <c r="C938" s="2" t="inlineStr">
         <is>
-          <t>R$ 81.29</t>
+          <t>R$ 81.34</t>
         </is>
       </c>
     </row>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="C939" s="2" t="inlineStr">
         <is>
-          <t>R$ 80.85</t>
+          <t>R$ 80.90</t>
         </is>
       </c>
     </row>
@@ -16421,7 +16421,7 @@
       </c>
       <c r="C940" s="2" t="inlineStr">
         <is>
-          <t>R$ 80.54</t>
+          <t>R$ 80.59</t>
         </is>
       </c>
     </row>
@@ -16438,7 +16438,7 @@
       </c>
       <c r="C941" s="2" t="inlineStr">
         <is>
-          <t>R$ 80.29</t>
+          <t>R$ 80.34</t>
         </is>
       </c>
     </row>
@@ -16455,7 +16455,7 @@
       </c>
       <c r="C942" s="2" t="inlineStr">
         <is>
-          <t>R$ 80.22</t>
+          <t>R$ 80.27</t>
         </is>
       </c>
     </row>
@@ -16472,7 +16472,7 @@
       </c>
       <c r="C943" s="2" t="inlineStr">
         <is>
-          <t>R$ 80.10</t>
+          <t>R$ 80.15</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="C944" s="2" t="inlineStr">
         <is>
-          <t>R$ 79.54</t>
+          <t>R$ 79.59</t>
         </is>
       </c>
     </row>
@@ -16506,7 +16506,7 @@
       </c>
       <c r="C945" s="2" t="inlineStr">
         <is>
-          <t>R$ 78.66</t>
+          <t>R$ 78.71</t>
         </is>
       </c>
     </row>
@@ -16523,7 +16523,7 @@
       </c>
       <c r="C946" s="2" t="inlineStr">
         <is>
-          <t>R$ 78.29</t>
+          <t>R$ 78.34</t>
         </is>
       </c>
     </row>
@@ -16540,7 +16540,7 @@
       </c>
       <c r="C947" s="2" t="inlineStr">
         <is>
-          <t>R$ 78.04</t>
+          <t>R$ 78.09</t>
         </is>
       </c>
     </row>
@@ -16557,7 +16557,7 @@
       </c>
       <c r="C948" s="2" t="inlineStr">
         <is>
-          <t>R$ 77.79</t>
+          <t>R$ 77.84</t>
         </is>
       </c>
     </row>
@@ -16574,7 +16574,7 @@
       </c>
       <c r="C949" s="2" t="inlineStr">
         <is>
-          <t>R$ 77.11</t>
+          <t>R$ 77.15</t>
         </is>
       </c>
     </row>
@@ -16591,7 +16591,7 @@
       </c>
       <c r="C950" s="2" t="inlineStr">
         <is>
-          <t>R$ 76.98</t>
+          <t>R$ 77.03</t>
         </is>
       </c>
     </row>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="C951" s="2" t="inlineStr">
         <is>
-          <t>R$ 76.98</t>
+          <t>R$ 77.03</t>
         </is>
       </c>
     </row>
@@ -16625,7 +16625,7 @@
       </c>
       <c r="C952" s="2" t="inlineStr">
         <is>
-          <t>R$ 76.73</t>
+          <t>R$ 76.78</t>
         </is>
       </c>
     </row>
@@ -16642,7 +16642,7 @@
       </c>
       <c r="C953" s="2" t="inlineStr">
         <is>
-          <t>R$ 76.67</t>
+          <t>R$ 76.72</t>
         </is>
       </c>
     </row>
@@ -16659,7 +16659,7 @@
       </c>
       <c r="C954" s="2" t="inlineStr">
         <is>
-          <t>R$ 76.42</t>
+          <t>R$ 76.47</t>
         </is>
       </c>
     </row>
@@ -16676,7 +16676,7 @@
       </c>
       <c r="C955" s="2" t="inlineStr">
         <is>
-          <t>R$ 76.29</t>
+          <t>R$ 76.34</t>
         </is>
       </c>
     </row>
@@ -16693,7 +16693,7 @@
       </c>
       <c r="C956" s="2" t="inlineStr">
         <is>
-          <t>R$ 75.86</t>
+          <t>R$ 75.91</t>
         </is>
       </c>
     </row>
@@ -16710,7 +16710,7 @@
       </c>
       <c r="C957" s="2" t="inlineStr">
         <is>
-          <t>R$ 75.36</t>
+          <t>R$ 75.41</t>
         </is>
       </c>
     </row>
@@ -16727,7 +16727,7 @@
       </c>
       <c r="C958" s="2" t="inlineStr">
         <is>
-          <t>R$ 74.17</t>
+          <t>R$ 74.22</t>
         </is>
       </c>
     </row>
@@ -16744,7 +16744,7 @@
       </c>
       <c r="C959" s="2" t="inlineStr">
         <is>
-          <t>R$ 74.17</t>
+          <t>R$ 74.22</t>
         </is>
       </c>
     </row>
@@ -16761,7 +16761,7 @@
       </c>
       <c r="C960" s="2" t="inlineStr">
         <is>
-          <t>R$ 74.11</t>
+          <t>R$ 74.16</t>
         </is>
       </c>
     </row>
@@ -16778,7 +16778,7 @@
       </c>
       <c r="C961" s="2" t="inlineStr">
         <is>
-          <t>R$ 74.05</t>
+          <t>R$ 74.09</t>
         </is>
       </c>
     </row>
@@ -16795,7 +16795,7 @@
       </c>
       <c r="C962" s="2" t="inlineStr">
         <is>
-          <t>R$ 73.86</t>
+          <t>R$ 73.91</t>
         </is>
       </c>
     </row>
@@ -16812,7 +16812,7 @@
       </c>
       <c r="C963" s="2" t="inlineStr">
         <is>
-          <t>R$ 73.80</t>
+          <t>R$ 73.85</t>
         </is>
       </c>
     </row>
@@ -16829,7 +16829,7 @@
       </c>
       <c r="C964" s="2" t="inlineStr">
         <is>
-          <t>R$ 73.80</t>
+          <t>R$ 73.85</t>
         </is>
       </c>
     </row>
@@ -16846,7 +16846,7 @@
       </c>
       <c r="C965" s="2" t="inlineStr">
         <is>
-          <t>R$ 73.74</t>
+          <t>R$ 73.78</t>
         </is>
       </c>
     </row>
@@ -16863,7 +16863,7 @@
       </c>
       <c r="C966" s="2" t="inlineStr">
         <is>
-          <t>R$ 73.30</t>
+          <t>R$ 73.35</t>
         </is>
       </c>
     </row>
@@ -16880,7 +16880,7 @@
       </c>
       <c r="C967" s="2" t="inlineStr">
         <is>
-          <t>R$ 72.86</t>
+          <t>R$ 72.91</t>
         </is>
       </c>
     </row>
@@ -16897,7 +16897,7 @@
       </c>
       <c r="C968" s="2" t="inlineStr">
         <is>
-          <t>R$ 72.61</t>
+          <t>R$ 72.66</t>
         </is>
       </c>
     </row>
@@ -16914,7 +16914,7 @@
       </c>
       <c r="C969" s="2" t="inlineStr">
         <is>
-          <t>R$ 71.93</t>
+          <t>R$ 71.97</t>
         </is>
       </c>
     </row>
@@ -16931,7 +16931,7 @@
       </c>
       <c r="C970" s="2" t="inlineStr">
         <is>
-          <t>R$ 71.62</t>
+          <t>R$ 71.66</t>
         </is>
       </c>
     </row>
@@ -16948,7 +16948,7 @@
       </c>
       <c r="C971" s="2" t="inlineStr">
         <is>
-          <t>R$ 71.43</t>
+          <t>R$ 71.47</t>
         </is>
       </c>
     </row>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="C972" s="2" t="inlineStr">
         <is>
-          <t>R$ 70.99</t>
+          <t>R$ 71.04</t>
         </is>
       </c>
     </row>
@@ -16982,7 +16982,7 @@
       </c>
       <c r="C973" s="2" t="inlineStr">
         <is>
-          <t>R$ 70.68</t>
+          <t>R$ 70.72</t>
         </is>
       </c>
     </row>
@@ -16999,7 +16999,7 @@
       </c>
       <c r="C974" s="2" t="inlineStr">
         <is>
-          <t>R$ 70.06</t>
+          <t>R$ 70.10</t>
         </is>
       </c>
     </row>
@@ -17016,7 +17016,7 @@
       </c>
       <c r="C975" s="2" t="inlineStr">
         <is>
-          <t>R$ 69.93</t>
+          <t>R$ 69.98</t>
         </is>
       </c>
     </row>
@@ -17033,7 +17033,7 @@
       </c>
       <c r="C976" s="2" t="inlineStr">
         <is>
-          <t>R$ 69.31</t>
+          <t>R$ 69.35</t>
         </is>
       </c>
     </row>
@@ -17050,7 +17050,7 @@
       </c>
       <c r="C977" s="2" t="inlineStr">
         <is>
-          <t>R$ 69.25</t>
+          <t>R$ 69.29</t>
         </is>
       </c>
     </row>
@@ -17067,7 +17067,7 @@
       </c>
       <c r="C978" s="2" t="inlineStr">
         <is>
-          <t>R$ 68.93</t>
+          <t>R$ 68.98</t>
         </is>
       </c>
     </row>
@@ -17084,7 +17084,7 @@
       </c>
       <c r="C979" s="2" t="inlineStr">
         <is>
-          <t>R$ 68.43</t>
+          <t>R$ 68.48</t>
         </is>
       </c>
     </row>
@@ -17101,7 +17101,7 @@
       </c>
       <c r="C980" s="2" t="inlineStr">
         <is>
-          <t>R$ 68.18</t>
+          <t>R$ 68.23</t>
         </is>
       </c>
     </row>
@@ -17118,7 +17118,7 @@
       </c>
       <c r="C981" s="2" t="inlineStr">
         <is>
-          <t>R$ 68.12</t>
+          <t>R$ 68.16</t>
         </is>
       </c>
     </row>
@@ -17135,7 +17135,7 @@
       </c>
       <c r="C982" s="2" t="inlineStr">
         <is>
-          <t>R$ 68.00</t>
+          <t>R$ 68.04</t>
         </is>
       </c>
     </row>
@@ -17152,7 +17152,7 @@
       </c>
       <c r="C983" s="2" t="inlineStr">
         <is>
-          <t>R$ 67.31</t>
+          <t>R$ 67.35</t>
         </is>
       </c>
     </row>
@@ -17169,7 +17169,7 @@
       </c>
       <c r="C984" s="2" t="inlineStr">
         <is>
-          <t>R$ 67.31</t>
+          <t>R$ 67.35</t>
         </is>
       </c>
     </row>
@@ -17186,7 +17186,7 @@
       </c>
       <c r="C985" s="2" t="inlineStr">
         <is>
-          <t>R$ 67.12</t>
+          <t>R$ 67.17</t>
         </is>
       </c>
     </row>
@@ -17203,7 +17203,7 @@
       </c>
       <c r="C986" s="2" t="inlineStr">
         <is>
-          <t>R$ 66.69</t>
+          <t>R$ 66.73</t>
         </is>
       </c>
     </row>
@@ -17220,7 +17220,7 @@
       </c>
       <c r="C987" s="2" t="inlineStr">
         <is>
-          <t>R$ 66.50</t>
+          <t>R$ 66.54</t>
         </is>
       </c>
     </row>
@@ -17237,7 +17237,7 @@
       </c>
       <c r="C988" s="2" t="inlineStr">
         <is>
-          <t>R$ 66.44</t>
+          <t>R$ 66.48</t>
         </is>
       </c>
     </row>
@@ -17254,7 +17254,7 @@
       </c>
       <c r="C989" s="2" t="inlineStr">
         <is>
-          <t>R$ 66.38</t>
+          <t>R$ 66.42</t>
         </is>
       </c>
     </row>
@@ -17271,7 +17271,7 @@
       </c>
       <c r="C990" s="2" t="inlineStr">
         <is>
-          <t>R$ 66.25</t>
+          <t>R$ 66.29</t>
         </is>
       </c>
     </row>
@@ -17288,7 +17288,7 @@
       </c>
       <c r="C991" s="2" t="inlineStr">
         <is>
-          <t>R$ 66.13</t>
+          <t>R$ 66.17</t>
         </is>
       </c>
     </row>
@@ -17305,7 +17305,7 @@
       </c>
       <c r="C992" s="2" t="inlineStr">
         <is>
-          <t>R$ 65.88</t>
+          <t>R$ 65.92</t>
         </is>
       </c>
     </row>
@@ -17322,7 +17322,7 @@
       </c>
       <c r="C993" s="2" t="inlineStr">
         <is>
-          <t>R$ 64.94</t>
+          <t>R$ 64.98</t>
         </is>
       </c>
     </row>
@@ -17339,7 +17339,7 @@
       </c>
       <c r="C994" s="2" t="inlineStr">
         <is>
-          <t>R$ 64.88</t>
+          <t>R$ 64.92</t>
         </is>
       </c>
     </row>
@@ -17356,7 +17356,7 @@
       </c>
       <c r="C995" s="2" t="inlineStr">
         <is>
-          <t>R$ 64.19</t>
+          <t>R$ 64.23</t>
         </is>
       </c>
     </row>
@@ -17373,7 +17373,7 @@
       </c>
       <c r="C996" s="2" t="inlineStr">
         <is>
-          <t>R$ 64.07</t>
+          <t>R$ 64.11</t>
         </is>
       </c>
     </row>
@@ -17390,7 +17390,7 @@
       </c>
       <c r="C997" s="2" t="inlineStr">
         <is>
-          <t>R$ 63.82</t>
+          <t>R$ 63.86</t>
         </is>
       </c>
     </row>
@@ -17407,7 +17407,7 @@
       </c>
       <c r="C998" s="2" t="inlineStr">
         <is>
-          <t>R$ 63.38</t>
+          <t>R$ 63.42</t>
         </is>
       </c>
     </row>
@@ -17424,7 +17424,7 @@
       </c>
       <c r="C999" s="2" t="inlineStr">
         <is>
-          <t>R$ 62.51</t>
+          <t>R$ 62.55</t>
         </is>
       </c>
     </row>
@@ -17441,7 +17441,7 @@
       </c>
       <c r="C1000" s="2" t="inlineStr">
         <is>
-          <t>R$ 62.45</t>
+          <t>R$ 62.48</t>
         </is>
       </c>
     </row>
@@ -17458,7 +17458,7 @@
       </c>
       <c r="C1001" s="2" t="inlineStr">
         <is>
-          <t>R$ 62.38</t>
+          <t>R$ 62.42</t>
         </is>
       </c>
     </row>
